--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t xml:space="preserve">Evento</t>
   </si>
@@ -127,6 +127,18 @@
     <t xml:space="preserve">RADIAÇÃO AMBIENTE</t>
   </si>
   <si>
+    <t xml:space="preserve">Energia teor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio à Exatidão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio em Sigmas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Obs</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t xml:space="preserve">gamma Pb3</t>
   </si>
   <si>
+    <t xml:space="preserve">joelho gama Bi1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escape duplo</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t xml:space="preserve">gamma Bi 3</t>
   </si>
   <si>
+    <t xml:space="preserve">joelho gama k</t>
+  </si>
+  <si>
     <t xml:space="preserve">gamma k</t>
   </si>
   <si>
@@ -184,6 +202,15 @@
     <t xml:space="preserve">Joelho</t>
   </si>
   <si>
+    <t xml:space="preserve">pico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr em total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr teor</t>
+  </si>
+  <si>
     <t xml:space="preserve">gamma Pb 1</t>
   </si>
   <si>
@@ -202,7 +229,19 @@
     <t xml:space="preserve">37.2</t>
   </si>
   <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi2</t>
+  </si>
+  <si>
     <t xml:space="preserve">double escape 40 k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi3</t>
   </si>
   <si>
     <t xml:space="preserve">Absorvedor</t>
@@ -265,7 +304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,23 +314,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1C3F0"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -371,6 +422,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top/>
       <bottom style="hair"/>
@@ -430,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -512,7 +570,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -523,39 +593,71 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,7 +665,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,11 +723,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -637,7 +739,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -849,7 +951,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1301,15 +1403,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N30"/>
+  <dimension ref="A3:R31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7244897959184"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1989795918367"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8877551020408"/>
@@ -1318,12 +1420,17 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.9489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.030612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.6377551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1339,43 +1446,60 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1383,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>26</v>
@@ -1396,10 +1520,10 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1407,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>59770</v>
@@ -1430,8 +1554,8 @@
         <v>94.4479472</v>
       </c>
       <c r="M6" s="9" t="n">
-        <f aca="false">I6*$C$8+$B$8*J6+$C$9</f>
-        <v>0.299685887176709</v>
+        <f aca="false">SQRT((I6*$C$8)^2+($B$8*J6)^2+$C$9^2)</f>
+        <v>0.20195370297499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,11 +1595,26 @@
         <v>242.0585834</v>
       </c>
       <c r="M7" s="9" t="n">
-        <f aca="false">I7*$C$8+$B$8*J7+$C$9</f>
-        <v>0.35423924817918</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>37</v>
+        <f aca="false">SQRT((I7*$C$8)^2+($B$8*J7)^2+$C$9^2)</f>
+        <v>0.223128556635732</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <f aca="false">N7-L7</f>
+        <v>-0.0585834000000034</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <f aca="false">O7/N7</f>
+        <v>-0.00024208016528927</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <f aca="false">O7/M7</f>
+        <v>-0.262554470316605</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,11 +1654,26 @@
         <v>307.0937444</v>
       </c>
       <c r="M8" s="9" t="n">
-        <f aca="false">I8*$C$8+$B$8*J8+$C$9</f>
-        <v>0.269315401427332</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>38</v>
+        <f aca="false">SQRT((I8*$C$8)^2+($B$8*J8)^2+$C$9^2)</f>
+        <v>0.156669765183536</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <f aca="false">N8-L8</f>
+        <v>-12.0937444</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <f aca="false">O8/N8</f>
+        <v>-0.0409957437288135</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <f aca="false">O8/M8</f>
+        <v>-77.1925864944803</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,51 +1713,84 @@
         <v>353.9085989</v>
       </c>
       <c r="M9" s="9" t="n">
-        <f aca="false">I9*$C$8+$B$8*J9+$C$9</f>
-        <v>0.402920224331818</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="8" t="n">
+        <f aca="false">SQRT((I9*$C$8)^2+($B$8*J9)^2+$C$9^2)</f>
+        <v>0.248812948711324</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <f aca="false">N9-L9</f>
+        <v>-1.90859890000007</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <f aca="false">O9/N9</f>
+        <v>-0.0054221559659093</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <f aca="false">O9/M9</f>
+        <v>-7.67081821860668</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="28" t="n">
         <v>470</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="28" t="n">
         <v>190</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="28" t="n">
         <v>227.02</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="29" t="n">
         <f aca="false">K10/(SQRT(G10)*2.35)</f>
         <v>0.0830278087225997</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="28" t="n">
         <v>4.23</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="29" t="n">
         <f aca="false">I10*$B$8+$B$9</f>
         <v>399.6773114</v>
       </c>
-      <c r="M10" s="9" t="n">
-        <f aca="false">I10*$C$8+$B$8*J10+$C$9</f>
-        <v>0.353715437934463</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="29" t="n">
+        <f aca="false">SQRT((I10*$C$8)^2+($B$8*J10)^2+$C$9^2)</f>
+        <v>0.206852549864591</v>
+      </c>
+      <c r="N10" s="30" t="n">
+        <v>429.0125</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <f aca="false">N10-L10</f>
+        <v>29.3351885999999</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <f aca="false">O10/N10</f>
+        <v>0.0683784006293521</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <f aca="false">O10/M10</f>
+        <v>141.816905903278</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>476</v>
@@ -1612,7 +1799,7 @@
         <v>242</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>226.99</v>
+        <v>236.99</v>
       </c>
       <c r="J11" s="9" t="n">
         <f aca="false">K11/(SQRT(G11)*2.35)</f>
@@ -1623,52 +1810,82 @@
       </c>
       <c r="L11" s="9" t="n">
         <f aca="false">I11*$B$8+$B$9</f>
-        <v>399.6250043</v>
+        <v>417.0607043</v>
       </c>
       <c r="M11" s="9" t="n">
-        <f aca="false">I11*$C$8+$B$8*J11+$C$9</f>
-        <v>0.351766236760992</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I11*$C$8)^2+($B$8*J11)^2+$C$9^2)</f>
+        <v>0.207841891601554</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>438</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">N11-L11</f>
+        <v>20.9392956999999</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <f aca="false">O11/N11</f>
+        <v>0.0478066111872145</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <f aca="false">O11/M11</f>
+        <v>100.746271786931</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="32" t="n">
         <v>352</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="32" t="n">
         <v>231</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="32" t="n">
         <v>283.99</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="33" t="n">
         <f aca="false">K12/(SQRT(G12)*2.35)</f>
         <v>0.0390111949076223</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="32" t="n">
         <v>1.72</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="33" t="n">
         <f aca="false">I12*$B$8+$B$9</f>
         <v>499.0084943</v>
       </c>
-      <c r="M12" s="9" t="n">
-        <f aca="false">I12*$C$8+$B$8*J12+$C$9</f>
-        <v>0.303014593365083</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="33" t="n">
+        <f aca="false">SQRT((I12*$C$8)^2+($B$8*J12)^2+$C$9^2)</f>
+        <v>0.180395050507107</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1699,11 +1916,26 @@
         <v>603.1693661</v>
       </c>
       <c r="M13" s="9" t="n">
-        <f aca="false">I13*$C$8+$B$8*J13+$C$9</f>
-        <v>0.649484531479614</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>42</v>
+        <f aca="false">SQRT((I13*$C$8)^2+($B$8*J13)^2+$C$9^2)</f>
+        <v>0.430882514626316</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">N13-L13</f>
+        <v>5.83063389999995</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <f aca="false">O13/N13</f>
+        <v>0.0095741114942528</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <f aca="false">O13/M13</f>
+        <v>13.5318415161418</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,14 +1970,29 @@
         <v>754.8948275</v>
       </c>
       <c r="M14" s="9" t="n">
-        <f aca="false">I14*$C$8+$B$8*J14+$C$9</f>
-        <v>0.443857573519948</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I14*$C$8)^2+($B$8*J14)^2+$C$9^2)</f>
+        <v>0.264457221642881</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>768</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <f aca="false">N14-L14</f>
+        <v>13.1051725</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <f aca="false">O14/N14</f>
+        <v>0.0170640266927083</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <f aca="false">O14/M14</f>
+        <v>49.5549806452138</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1754,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>821</v>
@@ -1777,14 +2024,29 @@
         <v>913.5248261</v>
       </c>
       <c r="M15" s="9" t="n">
-        <f aca="false">I15*$C$8+$B$8*J15+$C$9</f>
-        <v>0.641983822848482</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I15*$C$8)^2+($B$8*J15)^2+$C$9^2)</f>
+        <v>0.396149292025507</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>949</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <f aca="false">N15-L15</f>
+        <v>35.4751739</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <f aca="false">O15/N15</f>
+        <v>0.0373816374077976</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <f aca="false">O15/M15</f>
+        <v>89.5500121144121</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1816,14 +2078,29 @@
         <v>1114.4887043</v>
       </c>
       <c r="M16" s="9" t="n">
-        <f aca="false">I16*$C$8+$B$8*J16+$C$9</f>
-        <v>0.542440716075489</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I16*$C$8)^2+($B$8*J16)^2+$C$9^2)</f>
+        <v>0.342344602875502</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>1120</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <f aca="false">N16-L16</f>
+        <v>5.51129569999989</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <f aca="false">O16/N16</f>
+        <v>0.00492079973214276</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <f aca="false">O16/M16</f>
+        <v>16.0986785061254</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1855,11 +2132,29 @@
         <v>1250.1035789</v>
       </c>
       <c r="M17" s="9" t="n">
-        <f aca="false">I17*$C$8+$B$8*J17+$C$9</f>
-        <v>0.714462537087852</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I17*$C$8)^2+($B$8*J17)^2+$C$9^2)</f>
+        <v>0.444591054520157</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>1242.5532</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <f aca="false">N17-L17</f>
+        <v>-7.55037889999994</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <f aca="false">O17/N17</f>
+        <v>-0.00607650352516089</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <f aca="false">O17/M17</f>
+        <v>-16.9827503797821</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1891,14 +2186,29 @@
         <v>1451.3464283</v>
       </c>
       <c r="M18" s="9" t="n">
-        <f aca="false">I18*$C$8+$B$8*J18+$C$9</f>
-        <v>0.962035614998121</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I18*$C$8)^2+($B$8*J18)^2+$C$9^2)</f>
+        <v>0.618834422576549</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>1460</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <f aca="false">N18-L18</f>
+        <v>8.65357169999993</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <f aca="false">O18/N18</f>
+        <v>0.00592710390410954</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <f aca="false">O18/M18</f>
+        <v>13.9836624859528</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1918,13 +2228,13 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="E20" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1934,40 +2244,49 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="E21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>52</v>
+      <c r="E21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="K21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="29" t="n">
+        <v>62</v>
+      </c>
+      <c r="F22" s="37" t="n">
         <v>242</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="29" t="n">
+      <c r="G22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="39" t="n">
         <f aca="false">F22/(1+2*F22/511)</f>
         <v>124.283417085427</v>
       </c>
@@ -1976,24 +2295,34 @@
         <v>117.716582914573</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>994</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">L22/$L$25*$N$25</f>
+        <v>31.4846441947566</v>
+      </c>
+      <c r="N22" s="40" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="29" t="n">
+        <v>64</v>
+      </c>
+      <c r="F23" s="37" t="n">
         <v>295</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="29" t="n">
+      <c r="G23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="39" t="n">
         <f aca="false">F23/(1+2*F23/511)</f>
         <v>136.916439600363</v>
       </c>
@@ -2002,21 +2331,31 @@
         <v>158.083560399637</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">L23/$L$25*$N$25</f>
+        <v>12.3214553237025</v>
+      </c>
+      <c r="N23" s="40" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="29" t="n">
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="37" t="n">
         <v>352</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="29" t="n">
+      <c r="G24" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="39" t="n">
         <f aca="false">F24/(1+2*F24/511)</f>
         <v>148.042798353909</v>
       </c>
@@ -2024,18 +2363,31 @@
         <f aca="false">F24-H24</f>
         <v>203.957201646091</v>
       </c>
+      <c r="K24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">L24/$L$25*$N$25</f>
+        <v>15.3939004815409</v>
+      </c>
+      <c r="N24" s="40" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="29" t="n">
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="37" t="n">
         <v>609</v>
       </c>
-      <c r="G25" s="30" t="n">
+      <c r="G25" s="38" t="n">
         <v>46.3</v>
       </c>
-      <c r="H25" s="29" t="n">
+      <c r="H25" s="39" t="n">
         <f aca="false">F25/(1+2*F25/511)</f>
         <v>179.987854251012</v>
       </c>
@@ -2043,18 +2395,33 @@
         <f aca="false">F25-H25</f>
         <v>429.012145748988</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">SUM(L22:L24)</f>
+        <v>1869</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">SUM(M22:M24)</f>
+        <v>59.2</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">SUM(N22:N24)</f>
+        <v>59.2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="29" t="n">
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="37" t="n">
         <v>768</v>
       </c>
-      <c r="G26" s="30" t="n">
+      <c r="G26" s="38" t="n">
         <v>5.04</v>
       </c>
-      <c r="H26" s="29" t="n">
+      <c r="H26" s="39" t="n">
         <f aca="false">F26/(1+2*F26/511)</f>
         <v>191.71861260381</v>
       </c>
@@ -2064,16 +2431,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="29" t="n">
+      <c r="E27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="37" t="n">
         <v>1120</v>
       </c>
-      <c r="G27" s="30" t="n">
+      <c r="G27" s="38" t="n">
         <v>15.04</v>
       </c>
-      <c r="H27" s="29" t="n">
+      <c r="H27" s="39" t="n">
         <f aca="false">F27/(1+2*F27/511)</f>
         <v>208.040712468193</v>
       </c>
@@ -2081,59 +2448,127 @@
         <f aca="false">F27-H27</f>
         <v>911.959287531807</v>
       </c>
+      <c r="K27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="31" t="n">
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="42" t="n">
         <v>1460</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29" t="n">
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="n">
         <f aca="false">F28/(1+2*F28/511)</f>
         <v>217.446808510638</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="42" t="n">
         <f aca="false">F28-H28</f>
         <v>1242.55319148936</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>1291</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <f aca="false">L28/$L$31*$N$31</f>
+        <v>33.7520992516739</v>
+      </c>
+      <c r="N28" s="40" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="31" t="n">
+      <c r="E29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42" t="n">
         <f aca="false">F28-511</f>
         <v>949</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <f aca="false">L29/$L$31*$N$31</f>
+        <v>9.85634501772351</v>
+      </c>
+      <c r="N29" s="40" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="31" t="n">
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="42" t="n">
         <f aca="false">F28-1022</f>
         <v>438</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29" t="s">
+      <c r="G30" s="38"/>
+      <c r="H30" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>871</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <f aca="false">L30/$L$31*$N$31</f>
+        <v>22.7715557306026</v>
+      </c>
+      <c r="N30" s="40" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <f aca="false">SUM(L28:L30)</f>
+        <v>2539</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <f aca="false">SUM(M28:M30)</f>
+        <v>66.38</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <f aca="false">SUM(N28:N30)</f>
+        <v>66.38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E3:R3"/>
     <mergeCell ref="E20:I20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2171,369 +2606,369 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="I4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36" t="n">
+      <c r="A5" s="43"/>
+      <c r="B5" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="43" t="n">
         <v>41373</v>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="43" t="n">
         <v>266</v>
       </c>
-      <c r="F5" s="32" t="n">
+      <c r="F5" s="43" t="n">
         <v>758.74</v>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="48" t="n">
         <f aca="false">H5/(SQRT(D5)*2.35)</f>
         <v>0.100795333653087</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="43" t="n">
         <v>48.18</v>
       </c>
-      <c r="I5" s="38" t="n">
+      <c r="I5" s="49" t="n">
         <f aca="false">LOG($D$5/D5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="39" t="n">
+      <c r="J5" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E5/D5)^2)</f>
         <v>0.00909242277792868</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="36" t="n">
+      <c r="A6" s="43"/>
+      <c r="B6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="n">
+      <c r="C6" s="43" t="n">
         <v>900</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="43" t="n">
         <v>39263</v>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="43" t="n">
         <v>289</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F6" s="43" t="n">
         <v>757.4</v>
       </c>
-      <c r="G6" s="37" t="n">
+      <c r="G6" s="48" t="n">
         <f aca="false">H6/(SQRT(D6)*2.35)</f>
         <v>0.0999248374025134</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="43" t="n">
         <v>46.53</v>
       </c>
-      <c r="I6" s="38" t="n">
+      <c r="I6" s="49" t="n">
         <f aca="false">LOG($D$5/D6)</f>
         <v>0.022733533165861</v>
       </c>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E6/D6)^2)</f>
         <v>0.00977316704679702</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36" t="n">
+      <c r="A7" s="43"/>
+      <c r="B7" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="n">
+      <c r="C7" s="43" t="n">
         <v>1800</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="43" t="n">
         <v>37101</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="43" t="n">
         <v>287</v>
       </c>
-      <c r="F7" s="32" t="n">
+      <c r="F7" s="43" t="n">
         <v>757.61</v>
       </c>
-      <c r="G7" s="37" t="n">
+      <c r="G7" s="48" t="n">
         <f aca="false">H7/(SQRT(D7)*2.35)</f>
         <v>0.106329847658248</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="43" t="n">
         <v>48.13</v>
       </c>
-      <c r="I7" s="38" t="n">
+      <c r="I7" s="49" t="n">
         <f aca="false">LOG($D$5/D7)</f>
         <v>0.0473313976816241</v>
       </c>
-      <c r="J7" s="39" t="n">
+      <c r="J7" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E7/D7)^2)</f>
         <v>0.0100586386099764</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="32" t="n">
+      <c r="A8" s="43"/>
+      <c r="B8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="43" t="n">
         <v>2700</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="43" t="n">
         <v>33153</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="43" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="43" t="n">
         <v>757.7</v>
       </c>
-      <c r="G8" s="37" t="n">
+      <c r="G8" s="48" t="n">
         <f aca="false">H8/(SQRT(D8)*2.35)</f>
         <v>0.110029002330371</v>
       </c>
-      <c r="H8" s="32" t="n">
+      <c r="H8" s="43" t="n">
         <v>47.08</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="49" t="n">
         <f aca="false">LOG($D$5/D8)</f>
         <v>0.096194179559091</v>
       </c>
-      <c r="J8" s="39" t="n">
+      <c r="J8" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E8/D8)^2)</f>
         <v>0.0103287373443672</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36" t="n">
+      <c r="A9" s="43"/>
+      <c r="B9" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="43" t="n">
         <v>3600</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="43" t="n">
         <v>32514</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="43" t="n">
         <v>274</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="43" t="n">
         <v>756.98</v>
       </c>
-      <c r="G9" s="37" t="n">
+      <c r="G9" s="48" t="n">
         <f aca="false">H9/(SQRT(D9)*2.35)</f>
         <v>0.107541469256278</v>
       </c>
-      <c r="H9" s="32" t="n">
+      <c r="H9" s="43" t="n">
         <v>45.57</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="49" t="n">
         <f aca="false">LOG($D$5/D9)</f>
         <v>0.1046466117936</v>
       </c>
-      <c r="J9" s="39" t="n">
+      <c r="J9" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E9/D9)^2)</f>
         <v>0.0105996579678561</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="32" t="n">
+      <c r="A10" s="43"/>
+      <c r="B10" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="43" t="n">
         <v>5400</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="43" t="n">
         <v>23440</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="43" t="n">
         <v>272</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="43" t="n">
         <v>757.25</v>
       </c>
-      <c r="G10" s="37" t="n">
+      <c r="G10" s="48" t="n">
         <f aca="false">H10/(SQRT(D10)*2.35)</f>
         <v>0.134523666504368</v>
       </c>
-      <c r="H10" s="32" t="n">
+      <c r="H10" s="43" t="n">
         <v>48.4</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="49" t="n">
         <f aca="false">LOG($D$5/D10)</f>
         <v>0.246759405843581</v>
       </c>
-      <c r="J10" s="39" t="n">
+      <c r="J10" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E10/D10)^2)</f>
         <v>0.0132661640961049</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36" t="n">
+      <c r="A11" s="43"/>
+      <c r="B11" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="n">
+      <c r="C11" s="43" t="n">
         <v>7200</v>
       </c>
-      <c r="D11" s="32" t="n">
+      <c r="D11" s="43" t="n">
         <v>18661</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="43" t="n">
         <v>246</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="43" t="n">
         <v>756.03</v>
       </c>
-      <c r="G11" s="37" t="n">
+      <c r="G11" s="48" t="n">
         <f aca="false">H11/(SQRT(D11)*2.35)</f>
         <v>0.144569357097493</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="43" t="n">
         <v>46.41</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="49" t="n">
         <f aca="false">LOG($D$5/D11)</f>
         <v>0.345782100314776</v>
       </c>
-      <c r="J11" s="39" t="n">
+      <c r="J11" s="50" t="n">
         <f aca="false">SQRT(($E$5/$D$5)^2+(E11/D11)^2)</f>
         <v>0.0146668440470279</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraçao" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Fonte Desconhecida" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Radiação Ambiente" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Atenuação Na Matéria" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Resolução Energia" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Atenuação Na Matéria" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t xml:space="preserve">Evento</t>
   </si>
@@ -103,6 +104,9 @@
     <t xml:space="preserve">?</t>
   </si>
   <si>
+    <t xml:space="preserve">;-</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
@@ -203,6 +207,57 @@
   </si>
   <si>
     <t xml:space="preserve">double escape 40 k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E (KeV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWHM (KeV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolução (\%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$^{137}Cs$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raio X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorção Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$^{60}Co$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorção Total 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorção Total 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconhecida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussiano 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussiano 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussiano 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussiano 13</t>
   </si>
   <si>
     <t xml:space="preserve">Absorvedor</t>
@@ -260,12 +315,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +338,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -430,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,11 +581,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,11 +617,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,10 +650,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,14 +741,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +803,7 @@
         <v>16.05</v>
       </c>
       <c r="H2" s="4" t="n">
-        <f aca="false">I2/(2.35*SQRT(D2))</f>
+        <f aca="false">Calibraçao!I2/(2.35*SQRT(Calibraçao!D2))</f>
         <v>0.0590536205656457</v>
       </c>
       <c r="I2" s="4" t="n">
@@ -763,7 +833,7 @@
         <v>379.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <f aca="false">I3/(2.35*SQRT(D3))</f>
+        <f aca="false">Calibraçao!I3/(2.35*SQRT(Calibraçao!D3))</f>
         <v>0.21513554063298</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -793,7 +863,7 @@
         <v>670.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <f aca="false">I4/(2.35*SQRT(D4))</f>
+        <f aca="false">Calibraçao!I4/(2.35*SQRT(Calibraçao!D4))</f>
         <v>0.245623984482394</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -823,7 +893,7 @@
         <v>760.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <f aca="false">I5/(2.35*SQRT(D5))</f>
+        <f aca="false">Calibraçao!I5/(2.35*SQRT(Calibraçao!D5))</f>
         <v>0.28309221439869</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -848,23 +918,23 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2307692307692"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0485829959514"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.0485829959514"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5182186234818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +1007,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -957,18 +1027,18 @@
         <v>13.71</v>
       </c>
       <c r="J4" s="10" t="n">
-        <f aca="false">K4/(SQRT(G4)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K4/(SQRT('Fonte Desconhecida'!G4)*2.35)</f>
         <v>0.00530380238414801</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="L4" s="9" t="n">
-        <f aca="false">I4*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I4*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>27.7563947</v>
       </c>
       <c r="M4" s="9" t="n">
-        <f aca="false">I4*$C$9+$B$9*J4+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I4*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J4+'Fonte Desconhecida'!$C$10</f>
         <v>0.120678406262929</v>
       </c>
       <c r="N4" s="4"/>
@@ -994,18 +1064,18 @@
         <v>45.48</v>
       </c>
       <c r="J5" s="10" t="n">
-        <f aca="false">K5/(SQRT(G5)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K5/(SQRT('Fonte Desconhecida'!G5)*2.35)</f>
         <v>0.0830456507360693</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>3.99</v>
       </c>
       <c r="L5" s="9" t="n">
-        <f aca="false">I5*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I5*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>83.1496136</v>
       </c>
       <c r="M5" s="9" t="n">
-        <f aca="false">I5*$C$9+$B$9*J5+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I5*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J5+'Fonte Desconhecida'!$C$10</f>
         <v>0.270751178773888</v>
       </c>
       <c r="N5" s="4"/>
@@ -1031,18 +1101,18 @@
         <v>65.64</v>
       </c>
       <c r="J6" s="10" t="n">
-        <f aca="false">K6/(SQRT(G6)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K6/(SQRT('Fonte Desconhecida'!G6)*2.35)</f>
         <v>0.0670814395086567</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>4.81</v>
       </c>
       <c r="L6" s="9" t="n">
-        <f aca="false">I6*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I6*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>118.2999848</v>
       </c>
       <c r="M6" s="9" t="n">
-        <f aca="false">I6*$C$9+$B$9*J6+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I6*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J6+'Fonte Desconhecida'!$C$10</f>
         <v>0.252133086844109</v>
       </c>
       <c r="N6" s="4"/>
@@ -1062,42 +1132,42 @@
         <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="9" t="n">
         <v>78</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="9" t="n">
-        <f aca="false">I7*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I7*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>139.85051</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>6169</v>
@@ -1109,18 +1179,18 @@
         <v>102.89</v>
       </c>
       <c r="J8" s="10" t="n">
-        <f aca="false">K8/(SQRT(G8)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K8/(SQRT('Fonte Desconhecida'!G8)*2.35)</f>
         <v>0.0512525985057823</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>9.46</v>
       </c>
       <c r="L8" s="9" t="n">
-        <f aca="false">I8*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I8*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>183.2479673</v>
       </c>
       <c r="M8" s="9" t="n">
-        <f aca="false">I8*$C$9+$B$9*J8+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I8*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J8+'Fonte Desconhecida'!$C$10</f>
         <v>0.241564126036727</v>
       </c>
       <c r="N8" s="4"/>
@@ -1128,7 +1198,7 @@
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>1.74357</v>
@@ -1143,33 +1213,33 @@
         <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>120</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" s="9" t="n">
-        <f aca="false">I9*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I9*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>213.08045</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>3.85205</v>
@@ -1184,26 +1254,26 @@
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9" t="n">
         <v>133</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" s="9" t="n">
-        <f aca="false">I10*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I10*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>235.74686</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1216,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>11885</v>
@@ -1228,18 +1298,18 @@
         <v>248.18</v>
       </c>
       <c r="J11" s="10" t="n">
-        <f aca="false">K11/(SQRT(G11)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K11/(SQRT('Fonte Desconhecida'!G11)*2.35)</f>
         <v>0.0828671759862874</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>21.23</v>
       </c>
       <c r="L11" s="9" t="n">
-        <f aca="false">I11*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I11*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>436.5712526</v>
       </c>
       <c r="M11" s="9" t="n">
-        <f aca="false">I11*$C$9+$B$9*J11+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I11*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J11+'Fonte Desconhecida'!$C$10</f>
         <v>0.363109165354411</v>
       </c>
       <c r="N11" s="4"/>
@@ -1253,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>6803</v>
@@ -1265,18 +1335,18 @@
         <v>350.37</v>
       </c>
       <c r="J12" s="10" t="n">
-        <f aca="false">K12/(SQRT(G12)*2.35)</f>
+        <f aca="false">'Fonte Desconhecida'!K12/(SQRT('Fonte Desconhecida'!G12)*2.35)</f>
         <v>0.162359851401565</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>31.47</v>
       </c>
       <c r="L12" s="9" t="n">
-        <f aca="false">I12*$B$9+$B$10</f>
+        <f aca="false">'Fonte Desconhecida'!I12*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
         <v>614.7466709</v>
       </c>
       <c r="M12" s="9" t="n">
-        <f aca="false">I12*$C$9+$B$9*J12+$C$10</f>
+        <f aca="false">'Fonte Desconhecida'!I12*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*'Fonte Desconhecida'!J12+'Fonte Desconhecida'!$C$10</f>
         <v>0.548428820488226</v>
       </c>
       <c r="N12" s="4"/>
@@ -1303,24 +1373,24 @@
   </sheetPr>
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2307692307692"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4736842105263"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0485829959514"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0485829959514"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5182186234818"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1399,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1372,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16</v>
@@ -1397,7 +1467,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -1407,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>59770</v>
@@ -1419,30 +1489,30 @@
         <v>51.96</v>
       </c>
       <c r="J6" s="9" t="n">
-        <f aca="false">K6/(SQRT(G6)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K6/(SQRT('Radiação Ambiente'!G6)*2.35)</f>
         <v>0.0979416519765244</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>56.27</v>
       </c>
       <c r="L6" s="9" t="n">
-        <f aca="false">I6*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I6*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>94.4479472</v>
       </c>
       <c r="M6" s="9" t="n">
-        <f aca="false">I6*$C$8+$B$8*J6+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I6*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J6+'Radiação Ambiente'!$C$9</f>
         <v>0.299685887176709</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>2</v>
@@ -1460,27 +1530,27 @@
         <v>136.62</v>
       </c>
       <c r="J7" s="9" t="n">
-        <f aca="false">K7/(SQRT(G7)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K7/(SQRT('Radiação Ambiente'!G7)*2.35)</f>
         <v>0.107031628382675</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>7.93</v>
       </c>
       <c r="L7" s="9" t="n">
-        <f aca="false">I7*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I7*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>242.0585834</v>
       </c>
       <c r="M7" s="9" t="n">
-        <f aca="false">I7*$C$8+$B$8*J7+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I7*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J7+'Radiação Ambiente'!$C$9</f>
         <v>0.35423924817918</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>1.74357</v>
@@ -1504,27 +1574,27 @@
         <v>173.92</v>
       </c>
       <c r="J8" s="9" t="n">
-        <f aca="false">K8/(SQRT(G8)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K8/(SQRT('Radiação Ambiente'!G8)*2.35)</f>
         <v>0.0485444802028781</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" s="9" t="n">
-        <f aca="false">I8*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I8*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>307.0937444</v>
       </c>
       <c r="M8" s="9" t="n">
-        <f aca="false">I8*$C$8+$B$8*J8+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I8*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J8+'Radiação Ambiente'!$C$9</f>
         <v>0.269315401427332</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>3.85205</v>
@@ -1548,22 +1618,22 @@
         <v>200.77</v>
       </c>
       <c r="J9" s="9" t="n">
-        <f aca="false">K9/(SQRT(G9)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K9/(SQRT('Radiação Ambiente'!G9)*2.35)</f>
         <v>0.118131420219331</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>6.12</v>
       </c>
       <c r="L9" s="9" t="n">
-        <f aca="false">I9*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I9*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>353.9085989</v>
       </c>
       <c r="M9" s="9" t="n">
-        <f aca="false">I9*$C$8+$B$8*J9+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I9*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J9+'Radiação Ambiente'!$C$9</f>
         <v>0.402920224331818</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>39</v>
+      <c r="N9" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,18 +1653,18 @@
         <v>227.02</v>
       </c>
       <c r="J10" s="9" t="n">
-        <f aca="false">K10/(SQRT(G10)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K10/(SQRT('Radiação Ambiente'!G10)*2.35)</f>
         <v>0.0830278087225997</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>4.23</v>
       </c>
       <c r="L10" s="9" t="n">
-        <f aca="false">I10*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I10*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>399.6773114</v>
       </c>
       <c r="M10" s="9" t="n">
-        <f aca="false">I10*$C$8+$B$8*J10+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I10*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J10+'Radiação Ambiente'!$C$9</f>
         <v>0.353715437934463</v>
       </c>
     </row>
@@ -1603,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>476</v>
@@ -1615,22 +1685,22 @@
         <v>226.99</v>
       </c>
       <c r="J11" s="9" t="n">
-        <f aca="false">K11/(SQRT(G11)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K11/(SQRT('Radiação Ambiente'!G11)*2.35)</f>
         <v>0.0819177380323082</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>4.2</v>
       </c>
       <c r="L11" s="9" t="n">
-        <f aca="false">I11*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I11*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>399.6250043</v>
       </c>
       <c r="M11" s="9" t="n">
-        <f aca="false">I11*$C$8+$B$8*J11+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I11*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J11+'Radiação Ambiente'!$C$9</f>
         <v>0.351766236760992</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,18 +1723,18 @@
         <v>283.99</v>
       </c>
       <c r="J12" s="9" t="n">
-        <f aca="false">K12/(SQRT(G12)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K12/(SQRT('Radiação Ambiente'!G12)*2.35)</f>
         <v>0.0390111949076223</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>1.72</v>
       </c>
       <c r="L12" s="9" t="n">
-        <f aca="false">I12*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I12*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>499.0084943</v>
       </c>
       <c r="M12" s="9" t="n">
-        <f aca="false">I12*$C$8+$B$8*J12+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I12*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J12+'Radiação Ambiente'!$C$9</f>
         <v>0.303014593365083</v>
       </c>
     </row>
@@ -1688,22 +1758,22 @@
         <v>343.73</v>
       </c>
       <c r="J13" s="9" t="n">
-        <f aca="false">K13/(SQRT(G13)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K13/(SQRT('Radiação Ambiente'!G13)*2.35)</f>
         <v>0.22205997606039</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>18.75</v>
       </c>
       <c r="L13" s="9" t="n">
-        <f aca="false">I13*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I13*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>603.1693661</v>
       </c>
       <c r="M13" s="9" t="n">
-        <f aca="false">I13*$C$8+$B$8*J13+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I13*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J13+'Radiação Ambiente'!$C$9</f>
         <v>0.649484531479614</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,22 +1797,22 @@
         <v>430.75</v>
       </c>
       <c r="J14" s="9" t="n">
-        <f aca="false">K14/(SQRT(G14)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K14/(SQRT('Radiação Ambiente'!G14)*2.35)</f>
         <v>0.0813083919888206</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>3.71</v>
       </c>
       <c r="L14" s="9" t="n">
-        <f aca="false">I14*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I14*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>754.8948275</v>
       </c>
       <c r="M14" s="9" t="n">
-        <f aca="false">I14*$C$8+$B$8*J14+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I14*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J14+'Radiação Ambiente'!$C$9</f>
         <v>0.443857573519948</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>821</v>
@@ -1766,22 +1836,22 @@
         <v>521.73</v>
       </c>
       <c r="J15" s="9" t="n">
-        <f aca="false">K15/(SQRT(G15)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K15/(SQRT('Radiação Ambiente'!G15)*2.35)</f>
         <v>0.17108543495729</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>11.52</v>
       </c>
       <c r="L15" s="9" t="n">
-        <f aca="false">I15*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I15*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>913.5248261</v>
       </c>
       <c r="M15" s="9" t="n">
-        <f aca="false">I15*$C$8+$B$8*J15+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I15*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J15+'Radiação Ambiente'!$C$9</f>
         <v>0.641983822848482</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,22 +1875,22 @@
         <v>636.99</v>
       </c>
       <c r="J16" s="9" t="n">
-        <f aca="false">K16/(SQRT(G16)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K16/(SQRT('Radiação Ambiente'!G16)*2.35)</f>
         <v>0.0837720595189694</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>5.81</v>
       </c>
       <c r="L16" s="9" t="n">
-        <f aca="false">I16*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I16*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>1114.4887043</v>
       </c>
       <c r="M16" s="9" t="n">
-        <f aca="false">I16*$C$8+$B$8*J16+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I16*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J16+'Radiação Ambiente'!$C$9</f>
         <v>0.542440716075489</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,18 +1914,18 @@
         <v>714.77</v>
       </c>
       <c r="J17" s="9" t="n">
-        <f aca="false">K17/(SQRT(G17)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K17/(SQRT('Radiação Ambiente'!G17)*2.35)</f>
         <v>0.162038390834811</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>3.49</v>
       </c>
       <c r="L17" s="9" t="n">
-        <f aca="false">I17*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I17*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>1250.1035789</v>
       </c>
       <c r="M17" s="9" t="n">
-        <f aca="false">I17*$C$8+$B$8*J17+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I17*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J17+'Radiação Ambiente'!$C$9</f>
         <v>0.714462537087852</v>
       </c>
     </row>
@@ -1880,22 +1950,22 @@
         <v>830.19</v>
       </c>
       <c r="J18" s="9" t="n">
-        <f aca="false">K18/(SQRT(G18)*2.35)</f>
+        <f aca="false">'Radiação Ambiente'!K18/(SQRT('Radiação Ambiente'!G18)*2.35)</f>
         <v>0.273766658028138</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>37.27</v>
       </c>
       <c r="L18" s="9" t="n">
-        <f aca="false">I18*$B$8+$B$9</f>
+        <f aca="false">'Radiação Ambiente'!I18*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
         <v>1451.3464283</v>
       </c>
       <c r="M18" s="9" t="n">
-        <f aca="false">I18*$C$8+$B$8*J18+$C$9</f>
+        <f aca="false">'Radiação Ambiente'!I18*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J18+'Radiação Ambiente'!$C$9</f>
         <v>0.962035614998121</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,13 +1988,13 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="E20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1934,20 +2004,20 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="E21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="E21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="H21" s="27" t="s">
         <v>52</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1959,46 +2029,44 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="29" t="n">
+        <v>54</v>
+      </c>
+      <c r="F22" s="28" t="n">
         <v>242</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="29" t="n">
-        <f aca="false">F22/(1+2*F22/511)</f>
+      <c r="G22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F22/(1+2*'Radiação Ambiente'!F22/511)</f>
         <v>124.283417085427</v>
       </c>
       <c r="I22" s="4" t="n">
-        <f aca="false">F22-H22</f>
+        <f aca="false">'Radiação Ambiente'!F22-'Radiação Ambiente'!H22</f>
         <v>117.716582914573</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="29" t="n">
+        <v>56</v>
+      </c>
+      <c r="F23" s="28" t="n">
         <v>295</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="29" t="n">
-        <f aca="false">F23/(1+2*F23/511)</f>
+      <c r="G23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F23/(1+2*'Radiação Ambiente'!F23/511)</f>
         <v>136.916439600363</v>
       </c>
       <c r="I23" s="4" t="n">
-        <f aca="false">F23-H23</f>
+        <f aca="false">'Radiação Ambiente'!F23-'Radiação Ambiente'!H23</f>
         <v>158.083560399637</v>
       </c>
       <c r="J23" s="4"/>
@@ -2007,128 +2075,128 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="29" t="n">
+      <c r="E24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="29" t="n">
-        <f aca="false">F24/(1+2*F24/511)</f>
+      <c r="G24" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F24/(1+2*'Radiação Ambiente'!F24/511)</f>
         <v>148.042798353909</v>
       </c>
       <c r="I24" s="4" t="n">
-        <f aca="false">F24-H24</f>
+        <f aca="false">'Radiação Ambiente'!F24-'Radiação Ambiente'!H24</f>
         <v>203.957201646091</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="29" t="n">
+      <c r="E25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="28" t="n">
         <v>609</v>
       </c>
-      <c r="G25" s="30" t="n">
+      <c r="G25" s="29" t="n">
         <v>46.3</v>
       </c>
-      <c r="H25" s="29" t="n">
-        <f aca="false">F25/(1+2*F25/511)</f>
+      <c r="H25" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F25/(1+2*'Radiação Ambiente'!F25/511)</f>
         <v>179.987854251012</v>
       </c>
       <c r="I25" s="4" t="n">
-        <f aca="false">F25-H25</f>
+        <f aca="false">'Radiação Ambiente'!F25-'Radiação Ambiente'!H25</f>
         <v>429.012145748988</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="29" t="n">
+      <c r="E26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="28" t="n">
         <v>768</v>
       </c>
-      <c r="G26" s="30" t="n">
+      <c r="G26" s="29" t="n">
         <v>5.04</v>
       </c>
-      <c r="H26" s="29" t="n">
-        <f aca="false">F26/(1+2*F26/511)</f>
+      <c r="H26" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F26/(1+2*'Radiação Ambiente'!F26/511)</f>
         <v>191.71861260381</v>
       </c>
       <c r="I26" s="4" t="n">
-        <f aca="false">F26-H26</f>
+        <f aca="false">'Radiação Ambiente'!F26-'Radiação Ambiente'!H26</f>
         <v>576.28138739619</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="28" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G27" s="29" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H27" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F27/(1+2*'Radiação Ambiente'!F27/511)</f>
+        <v>208.040712468193</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">'Radiação Ambiente'!F27-'Radiação Ambiente'!H27</f>
+        <v>911.959287531807</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="30" t="n">
+        <v>1460</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28" t="n">
+        <f aca="false">'Radiação Ambiente'!F28/(1+2*'Radiação Ambiente'!F28/511)</f>
+        <v>217.446808510638</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">'Radiação Ambiente'!F28-'Radiação Ambiente'!H28</f>
+        <v>1242.55319148936</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="29" t="n">
-        <v>1120</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="H27" s="29" t="n">
-        <f aca="false">F27/(1+2*F27/511)</f>
-        <v>208.040712468193</v>
-      </c>
-      <c r="I27" s="4" t="n">
-        <f aca="false">F27-H27</f>
-        <v>911.959287531807</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="31" t="n">
-        <v>1460</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29" t="n">
-        <f aca="false">F28/(1+2*F28/511)</f>
-        <v>217.446808510638</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <f aca="false">F28-H28</f>
-        <v>1242.55319148936</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="31" t="n">
-        <f aca="false">F28-511</f>
+      <c r="F29" s="30" t="n">
+        <f aca="false">'Radiação Ambiente'!F28-511</f>
         <v>949</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>26</v>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="31" t="n">
-        <f aca="false">F28-1022</f>
+      <c r="E30" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="30" t="n">
+        <f aca="false">'Radiação Ambiente'!F28-1022</f>
         <v>438</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>26</v>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2151,389 +2219,1032 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B3:J31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5465587044534"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6275303643725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <f aca="false">'Resolução Energia'!H20*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
+        <v>31.8363485</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <f aca="false">H20*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*I20+'Fonte Desconhecida'!$C$10</f>
+        <v>0.215464763909643</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J20*'Fonte Desconhecida'!$B$9</f>
+        <v>4.8994317</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <f aca="false">J20*'Fonte Desconhecida'!$C$9</f>
+        <v>0.00128465894</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">F4/D4</f>
+        <v>0.153894272768122</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">SQRT((G4/D4)^2+(F4*E4/D4)^2)</f>
+        <v>0.0331588177017894</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="32"/>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <f aca="false">'Resolução Energia'!H21*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
+        <v>666.2517287</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <f aca="false">H21*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*I21+'Fonte Desconhecida'!$C$10</f>
+        <v>0.653951848921445</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J21*'Fonte Desconhecida'!$B$9</f>
+        <v>42.5954151</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <f aca="false">J21*'Fonte Desconhecida'!$C$9</f>
+        <v>0.01116876082</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">F5/D5</f>
+        <v>0.0639329149405928</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">SQRT((G5/D5)^2+(F5*E5/D5)^2)</f>
+        <v>0.0418090512930633</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <f aca="false">'Resolução Energia'!H22*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
+        <v>1172.7936851</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <f aca="false">H22*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*I22+'Fonte Desconhecida'!$C$10</f>
+        <v>0.839928775443967</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J22*'Fonte Desconhecida'!$B$9</f>
+        <v>43.2056646</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <f aca="false">J22*'Fonte Desconhecida'!$C$9</f>
+        <v>0.01132877172</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">F6/D6</f>
+        <v>0.0368399533088516</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">SQRT((G6/D6)^2+(F6*E6/D6)^2)</f>
+        <v>0.030942938377872</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="32"/>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <f aca="false">'Resolução Energia'!H23*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
+        <v>1329.6801137</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <f aca="false">H23*'Fonte Desconhecida'!$C$9+'Fonte Desconhecida'!$B$9*I23+'Fonte Desconhecida'!$C$10</f>
+        <v>0.946393773599124</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J23*'Fonte Desconhecida'!$B$9</f>
+        <v>44.984106</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <f aca="false">J23*'Fonte Desconhecida'!$C$9</f>
+        <v>0.0117950892</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">F7/D7</f>
+        <v>0.033830772932917</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">SQRT((G7/D7)^2+(F7*E7/D7)^2)</f>
+        <v>0.0320172340885956</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>27.7563947</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.120678406262929</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">'Resolução Energia'!H26*'Fonte Desconhecida'!$B$9</f>
+        <v>5.6491668</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <f aca="false">H26*'Fonte Desconhecida'!$C$9</f>
+        <v>0.00148124376</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">F8/D8</f>
+        <v>0.203526677764097</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">SQRT((G8/D8)^2+(F8*E8/D8)^2)</f>
+        <v>0.0245613330801985</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="32"/>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>118.2999848</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.252133086844109</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">'Resolução Energia'!H27*'Fonte Desconhecida'!$B$9</f>
+        <v>8.3865717</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <f aca="false">H27*'Fonte Desconhecida'!$C$9</f>
+        <v>0.00219900694</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">F9/D9</f>
+        <v>0.0708924157021532</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">SQRT((G9/D9)^2+(F9*E9/D9)^2)</f>
+        <v>0.0178743332703145</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>603.1693661</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.649484531479614</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">'Resolução Energia'!H30*'Fonte Desconhecida'!$B$9</f>
+        <v>32.6919375</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <f aca="false">H30*'Fonte Desconhecida'!$C$9</f>
+        <v>0.0085720125</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <f aca="false">F10/D10</f>
+        <v>0.0542002617131918</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">SQRT((G10/D10)^2+(F10*E10/D10)^2)</f>
+        <v>0.035202234453576</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="32"/>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>1451.3464283</v>
+      </c>
+      <c r="E11" s="33" t="n">
+        <v>0.962035614998121</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">'Resolução Energia'!H31*'Fonte Desconhecida'!$B$9</f>
+        <v>64.9828539</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <f aca="false">H31*'Fonte Desconhecida'!$C$9</f>
+        <v>0.01703887498</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">F11/D11</f>
+        <v>0.0447741852895288</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">SQRT((G11/D11)^2+(F11*E11/D11)^2)</f>
+        <v>0.0430743624809442</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1628</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>410</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J20/(2.35*SQRT('Resolução Energia'!E20))</f>
+        <v>0.0590536205656457</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>4183</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>662</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>379.91</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J21/(2.35*SQRT('Resolução Energia'!E21))</f>
+        <v>0.21513554063298</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>2396</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1843</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>1173</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>670.43</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J22/(2.35*SQRT('Resolução Energia'!E22))</f>
+        <v>0.245623984482394</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1736</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1504</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>760.41</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">'Resolução Energia'!J23/(2.35*SQRT('Resolução Energia'!E23))</f>
+        <v>0.28309221439869</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>67574</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>283</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>0.00530380238414801</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>27.7563947</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.120678406262929</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>931</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0.0670814395086567</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>118.2999848</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.252133086844109</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>343.73</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0.22205997606039</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>603.1693661</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0.649484531479614</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>3356</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>830.19</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <f aca="false">'Resolução Energia'!H31/(SQRT('Resolução Energia'!D31)*2.35)</f>
+        <v>0.273766658028138</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>1451.3464283</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>0.962035614998121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0485829959514"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5182186234818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="I4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36" t="n">
+      <c r="A5" s="35"/>
+      <c r="B5" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="35" t="n">
         <v>41373</v>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="35" t="n">
         <v>266</v>
       </c>
-      <c r="F5" s="32" t="n">
+      <c r="F5" s="35" t="n">
         <v>758.74</v>
       </c>
-      <c r="G5" s="37" t="n">
-        <f aca="false">H5/(SQRT(D5)*2.35)</f>
+      <c r="G5" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H5/(SQRT('Atenuação Na Matéria'!D5)*2.35)</f>
         <v>0.100795333653087</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="35" t="n">
         <v>48.18</v>
       </c>
-      <c r="I5" s="38" t="n">
-        <f aca="false">LOG($D$5/D5)</f>
+      <c r="I5" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E5/D5)^2)</f>
+      <c r="J5" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E5/'Atenuação Na Matéria'!D5)^2)</f>
         <v>0.00909242277792868</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="36" t="n">
+      <c r="A6" s="35"/>
+      <c r="B6" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="n">
+      <c r="C6" s="35" t="n">
         <v>900</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="35" t="n">
         <v>39263</v>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="35" t="n">
         <v>289</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F6" s="35" t="n">
         <v>757.4</v>
       </c>
-      <c r="G6" s="37" t="n">
-        <f aca="false">H6/(SQRT(D6)*2.35)</f>
+      <c r="G6" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H6/(SQRT('Atenuação Na Matéria'!D6)*2.35)</f>
         <v>0.0999248374025134</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="35" t="n">
         <v>46.53</v>
       </c>
-      <c r="I6" s="38" t="n">
-        <f aca="false">LOG($D$5/D6)</f>
+      <c r="I6" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D6)</f>
         <v>0.022733533165861</v>
       </c>
-      <c r="J6" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E6/D6)^2)</f>
+      <c r="J6" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E6/'Atenuação Na Matéria'!D6)^2)</f>
         <v>0.00977316704679702</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36" t="n">
+      <c r="A7" s="35"/>
+      <c r="B7" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="n">
+      <c r="C7" s="35" t="n">
         <v>1800</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="35" t="n">
         <v>37101</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="35" t="n">
         <v>287</v>
       </c>
-      <c r="F7" s="32" t="n">
+      <c r="F7" s="35" t="n">
         <v>757.61</v>
       </c>
-      <c r="G7" s="37" t="n">
-        <f aca="false">H7/(SQRT(D7)*2.35)</f>
+      <c r="G7" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H7/(SQRT('Atenuação Na Matéria'!D7)*2.35)</f>
         <v>0.106329847658248</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="35" t="n">
         <v>48.13</v>
       </c>
-      <c r="I7" s="38" t="n">
-        <f aca="false">LOG($D$5/D7)</f>
+      <c r="I7" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D7)</f>
         <v>0.0473313976816241</v>
       </c>
-      <c r="J7" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E7/D7)^2)</f>
+      <c r="J7" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E7/'Atenuação Na Matéria'!D7)^2)</f>
         <v>0.0100586386099764</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="32" t="n">
+      <c r="A8" s="35"/>
+      <c r="B8" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="35" t="n">
         <v>2700</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="35" t="n">
         <v>33153</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="35" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="35" t="n">
         <v>757.7</v>
       </c>
-      <c r="G8" s="37" t="n">
-        <f aca="false">H8/(SQRT(D8)*2.35)</f>
+      <c r="G8" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H8/(SQRT('Atenuação Na Matéria'!D8)*2.35)</f>
         <v>0.110029002330371</v>
       </c>
-      <c r="H8" s="32" t="n">
+      <c r="H8" s="35" t="n">
         <v>47.08</v>
       </c>
-      <c r="I8" s="38" t="n">
-        <f aca="false">LOG($D$5/D8)</f>
+      <c r="I8" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D8)</f>
         <v>0.096194179559091</v>
       </c>
-      <c r="J8" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E8/D8)^2)</f>
+      <c r="J8" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E8/'Atenuação Na Matéria'!D8)^2)</f>
         <v>0.0103287373443672</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36" t="n">
+      <c r="A9" s="35"/>
+      <c r="B9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="35" t="n">
         <v>3600</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="35" t="n">
         <v>32514</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="35" t="n">
         <v>274</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="35" t="n">
         <v>756.98</v>
       </c>
-      <c r="G9" s="37" t="n">
-        <f aca="false">H9/(SQRT(D9)*2.35)</f>
+      <c r="G9" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H9/(SQRT('Atenuação Na Matéria'!D9)*2.35)</f>
         <v>0.107541469256278</v>
       </c>
-      <c r="H9" s="32" t="n">
+      <c r="H9" s="35" t="n">
         <v>45.57</v>
       </c>
-      <c r="I9" s="38" t="n">
-        <f aca="false">LOG($D$5/D9)</f>
+      <c r="I9" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D9)</f>
         <v>0.1046466117936</v>
       </c>
-      <c r="J9" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E9/D9)^2)</f>
+      <c r="J9" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E9/'Atenuação Na Matéria'!D9)^2)</f>
         <v>0.0105996579678561</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="32" t="n">
+      <c r="A10" s="35"/>
+      <c r="B10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="35" t="n">
         <v>5400</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="35" t="n">
         <v>23440</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="35" t="n">
         <v>272</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="35" t="n">
         <v>757.25</v>
       </c>
-      <c r="G10" s="37" t="n">
-        <f aca="false">H10/(SQRT(D10)*2.35)</f>
+      <c r="G10" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H10/(SQRT('Atenuação Na Matéria'!D10)*2.35)</f>
         <v>0.134523666504368</v>
       </c>
-      <c r="H10" s="32" t="n">
+      <c r="H10" s="35" t="n">
         <v>48.4</v>
       </c>
-      <c r="I10" s="38" t="n">
-        <f aca="false">LOG($D$5/D10)</f>
+      <c r="I10" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D10)</f>
         <v>0.246759405843581</v>
       </c>
-      <c r="J10" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E10/D10)^2)</f>
+      <c r="J10" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E10/'Atenuação Na Matéria'!D10)^2)</f>
         <v>0.0132661640961049</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36" t="n">
+      <c r="A11" s="35"/>
+      <c r="B11" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="n">
+      <c r="C11" s="35" t="n">
         <v>7200</v>
       </c>
-      <c r="D11" s="32" t="n">
+      <c r="D11" s="35" t="n">
         <v>18661</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="35" t="n">
         <v>246</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="35" t="n">
         <v>756.03</v>
       </c>
-      <c r="G11" s="37" t="n">
-        <f aca="false">H11/(SQRT(D11)*2.35)</f>
+      <c r="G11" s="33" t="n">
+        <f aca="false">'Atenuação Na Matéria'!H11/(SQRT('Atenuação Na Matéria'!D11)*2.35)</f>
         <v>0.144569357097493</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="35" t="n">
         <v>46.41</v>
       </c>
-      <c r="I11" s="38" t="n">
-        <f aca="false">LOG($D$5/D11)</f>
+      <c r="I11" s="40" t="n">
+        <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D11)</f>
         <v>0.345782100314776</v>
       </c>
-      <c r="J11" s="39" t="n">
-        <f aca="false">SQRT(($E$5/$D$5)^2+(E11/D11)^2)</f>
+      <c r="J11" s="41" t="n">
+        <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E11/'Atenuação Na Matéria'!D11)^2)</f>
         <v>0.0146668440470279</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraçao" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t xml:space="preserve">Evento</t>
   </si>
@@ -131,6 +131,18 @@
     <t xml:space="preserve">RADIAÇÃO AMBIENTE</t>
   </si>
   <si>
+    <t xml:space="preserve">Energia teor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio à Exatidão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio em Sigmas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Obs</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
     <t xml:space="preserve">gamma Pb3</t>
   </si>
   <si>
+    <t xml:space="preserve">joelho gama Bi1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escape duplo</t>
   </si>
   <si>
@@ -170,6 +185,9 @@
     <t xml:space="preserve">gamma Bi 3</t>
   </si>
   <si>
+    <t xml:space="preserve">joelho gama k</t>
+  </si>
+  <si>
     <t xml:space="preserve">gamma k</t>
   </si>
   <si>
@@ -188,6 +206,15 @@
     <t xml:space="preserve">Joelho</t>
   </si>
   <si>
+    <t xml:space="preserve">pico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr em total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr teor</t>
+  </si>
+  <si>
     <t xml:space="preserve">gamma Pb 1</t>
   </si>
   <si>
@@ -206,7 +233,19 @@
     <t xml:space="preserve">37.2</t>
   </si>
   <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi2</t>
+  </si>
+  <si>
     <t xml:space="preserve">double escape 40 k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma Bi3</t>
   </si>
   <si>
     <t xml:space="preserve">Fonte</t>
@@ -290,7 +329,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,13 +354,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,13 +376,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -349,11 +406,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1C3F0"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -433,6 +490,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top/>
       <bottom style="hair"/>
@@ -492,7 +556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,54 +638,102 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,7 +749,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,11 +803,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -707,7 +819,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -746,9 +858,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,17 +1036,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2307692307692"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3765182186235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,29 +1483,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N30"/>
+  <dimension ref="A3:R31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2307692307692"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8947368421053"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4736842105263"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0485829959514"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1409,43 +1521,60 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1453,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>27</v>
@@ -1466,10 +1595,10 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1477,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>59770</v>
@@ -1489,19 +1618,19 @@
         <v>51.96</v>
       </c>
       <c r="J6" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K6/(SQRT('Radiação Ambiente'!G6)*2.35)</f>
+        <f aca="false">K6/(SQRT(G6)*2.35)</f>
         <v>0.0979416519765244</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>56.27</v>
       </c>
       <c r="L6" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I6*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I6*$B$8+$B$9</f>
         <v>94.4479472</v>
       </c>
       <c r="M6" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I6*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J6+'Radiação Ambiente'!$C$9</f>
-        <v>0.299685887176709</v>
+        <f aca="false">SQRT((I6*$C$8)^2+($B$8*J6)^2+$C$9^2)</f>
+        <v>0.20195370297499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,22 +1659,37 @@
         <v>136.62</v>
       </c>
       <c r="J7" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K7/(SQRT('Radiação Ambiente'!G7)*2.35)</f>
+        <f aca="false">K7/(SQRT(G7)*2.35)</f>
         <v>0.107031628382675</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>7.93</v>
       </c>
       <c r="L7" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I7*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I7*$B$8+$B$9</f>
         <v>242.0585834</v>
       </c>
       <c r="M7" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I7*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J7+'Radiação Ambiente'!$C$9</f>
-        <v>0.35423924817918</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>38</v>
+        <f aca="false">SQRT((I7*$C$8)^2+($B$8*J7)^2+$C$9^2)</f>
+        <v>0.223128556635732</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <f aca="false">N7-L7</f>
+        <v>-0.0585834000000034</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <f aca="false">O7/N7</f>
+        <v>-0.00024208016528927</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <f aca="false">O7/M7</f>
+        <v>-0.262554470316605</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,22 +1718,37 @@
         <v>173.92</v>
       </c>
       <c r="J8" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K8/(SQRT('Radiação Ambiente'!G8)*2.35)</f>
+        <f aca="false">K8/(SQRT(G8)*2.35)</f>
         <v>0.0485444802028781</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I8*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I8*$B$8+$B$9</f>
         <v>307.0937444</v>
       </c>
       <c r="M8" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I8*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J8+'Radiação Ambiente'!$C$9</f>
-        <v>0.269315401427332</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>39</v>
+        <f aca="false">SQRT((I8*$C$8)^2+($B$8*J8)^2+$C$9^2)</f>
+        <v>0.156669765183536</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <f aca="false">N8-L8</f>
+        <v>-12.0937444</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <f aca="false">O8/N8</f>
+        <v>-0.0409957437288135</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <f aca="false">O8/M8</f>
+        <v>-77.1925864944803</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,62 +1777,95 @@
         <v>200.77</v>
       </c>
       <c r="J9" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K9/(SQRT('Radiação Ambiente'!G9)*2.35)</f>
+        <f aca="false">K9/(SQRT(G9)*2.35)</f>
         <v>0.118131420219331</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>6.12</v>
       </c>
       <c r="L9" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I9*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I9*$B$8+$B$9</f>
         <v>353.9085989</v>
       </c>
       <c r="M9" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I9*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J9+'Radiação Ambiente'!$C$9</f>
-        <v>0.402920224331818</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="8" t="n">
+        <f aca="false">SQRT((I9*$C$8)^2+($B$8*J9)^2+$C$9^2)</f>
+        <v>0.248812948711324</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <f aca="false">N9-L9</f>
+        <v>-1.90859890000007</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <f aca="false">O9/N9</f>
+        <v>-0.0054221559659093</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <f aca="false">O9/M9</f>
+        <v>-7.67081821860668</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="28" t="n">
         <v>470</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="28" t="n">
         <v>190</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="28" t="n">
         <v>227.02</v>
       </c>
-      <c r="J10" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K10/(SQRT('Radiação Ambiente'!G10)*2.35)</f>
+      <c r="J10" s="29" t="n">
+        <f aca="false">K10/(SQRT(G10)*2.35)</f>
         <v>0.0830278087225997</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="28" t="n">
         <v>4.23</v>
       </c>
-      <c r="L10" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I10*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+      <c r="L10" s="29" t="n">
+        <f aca="false">I10*$B$8+$B$9</f>
         <v>399.6773114</v>
       </c>
-      <c r="M10" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I10*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J10+'Radiação Ambiente'!$C$9</f>
-        <v>0.353715437934463</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="29" t="n">
+        <f aca="false">SQRT((I10*$C$8)^2+($B$8*J10)^2+$C$9^2)</f>
+        <v>0.206852549864591</v>
+      </c>
+      <c r="N10" s="30" t="n">
+        <v>429.0125</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <f aca="false">N10-L10</f>
+        <v>29.3351885999999</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <f aca="false">O10/N10</f>
+        <v>0.0683784006293521</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <f aca="false">O10/M10</f>
+        <v>141.816905903278</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>476</v>
@@ -1682,63 +1874,93 @@
         <v>242</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>226.99</v>
+        <v>236.99</v>
       </c>
       <c r="J11" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K11/(SQRT('Radiação Ambiente'!G11)*2.35)</f>
+        <f aca="false">K11/(SQRT(G11)*2.35)</f>
         <v>0.0819177380323082</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>4.2</v>
       </c>
       <c r="L11" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I11*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
-        <v>399.6250043</v>
+        <f aca="false">I11*$B$8+$B$9</f>
+        <v>417.0607043</v>
       </c>
       <c r="M11" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I11*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J11+'Radiação Ambiente'!$C$9</f>
-        <v>0.351766236760992</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I11*$C$8)^2+($B$8*J11)^2+$C$9^2)</f>
+        <v>0.207841891601554</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>438</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">N11-L11</f>
+        <v>20.9392956999999</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <f aca="false">O11/N11</f>
+        <v>0.0478066111872145</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <f aca="false">O11/M11</f>
+        <v>100.746271786931</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="32" t="n">
         <v>352</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="32" t="n">
         <v>231</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="32" t="n">
         <v>283.99</v>
       </c>
-      <c r="J12" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K12/(SQRT('Radiação Ambiente'!G12)*2.35)</f>
+      <c r="J12" s="33" t="n">
+        <f aca="false">K12/(SQRT(G12)*2.35)</f>
         <v>0.0390111949076223</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="32" t="n">
         <v>1.72</v>
       </c>
-      <c r="L12" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I12*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+      <c r="L12" s="33" t="n">
+        <f aca="false">I12*$B$8+$B$9</f>
         <v>499.0084943</v>
       </c>
-      <c r="M12" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I12*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J12+'Radiação Ambiente'!$C$9</f>
-        <v>0.303014593365083</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="33" t="n">
+        <f aca="false">SQRT((I12*$C$8)^2+($B$8*J12)^2+$C$9^2)</f>
+        <v>0.180395050507107</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1758,22 +1980,37 @@
         <v>343.73</v>
       </c>
       <c r="J13" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K13/(SQRT('Radiação Ambiente'!G13)*2.35)</f>
+        <f aca="false">K13/(SQRT(G13)*2.35)</f>
         <v>0.22205997606039</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>18.75</v>
       </c>
       <c r="L13" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I13*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I13*$B$8+$B$9</f>
         <v>603.1693661</v>
       </c>
       <c r="M13" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I13*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J13+'Radiação Ambiente'!$C$9</f>
-        <v>0.649484531479614</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>43</v>
+        <f aca="false">SQRT((I13*$C$8)^2+($B$8*J13)^2+$C$9^2)</f>
+        <v>0.430882514626316</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>609</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">N13-L13</f>
+        <v>5.83063389999995</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <f aca="false">O13/N13</f>
+        <v>0.0095741114942528</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <f aca="false">O13/M13</f>
+        <v>13.5318415161418</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,25 +2034,40 @@
         <v>430.75</v>
       </c>
       <c r="J14" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K14/(SQRT('Radiação Ambiente'!G14)*2.35)</f>
+        <f aca="false">K14/(SQRT(G14)*2.35)</f>
         <v>0.0813083919888206</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>3.71</v>
       </c>
       <c r="L14" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I14*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I14*$B$8+$B$9</f>
         <v>754.8948275</v>
       </c>
       <c r="M14" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I14*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J14+'Radiação Ambiente'!$C$9</f>
-        <v>0.443857573519948</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I14*$C$8)^2+($B$8*J14)^2+$C$9^2)</f>
+        <v>0.264457221642881</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>768</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <f aca="false">N14-L14</f>
+        <v>13.1051725</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <f aca="false">O14/N14</f>
+        <v>0.0170640266927083</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <f aca="false">O14/M14</f>
+        <v>49.5549806452138</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1824,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>821</v>
@@ -1836,25 +2088,40 @@
         <v>521.73</v>
       </c>
       <c r="J15" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K15/(SQRT('Radiação Ambiente'!G15)*2.35)</f>
+        <f aca="false">K15/(SQRT(G15)*2.35)</f>
         <v>0.17108543495729</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>11.52</v>
       </c>
       <c r="L15" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I15*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I15*$B$8+$B$9</f>
         <v>913.5248261</v>
       </c>
       <c r="M15" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I15*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J15+'Radiação Ambiente'!$C$9</f>
-        <v>0.641983822848482</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I15*$C$8)^2+($B$8*J15)^2+$C$9^2)</f>
+        <v>0.396149292025507</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>949</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <f aca="false">N15-L15</f>
+        <v>35.4751739</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <f aca="false">O15/N15</f>
+        <v>0.0373816374077976</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <f aca="false">O15/M15</f>
+        <v>89.5500121144121</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1875,25 +2142,40 @@
         <v>636.99</v>
       </c>
       <c r="J16" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K16/(SQRT('Radiação Ambiente'!G16)*2.35)</f>
+        <f aca="false">K16/(SQRT(G16)*2.35)</f>
         <v>0.0837720595189694</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>5.81</v>
       </c>
       <c r="L16" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I16*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I16*$B$8+$B$9</f>
         <v>1114.4887043</v>
       </c>
       <c r="M16" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I16*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J16+'Radiação Ambiente'!$C$9</f>
-        <v>0.542440716075489</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I16*$C$8)^2+($B$8*J16)^2+$C$9^2)</f>
+        <v>0.342344602875502</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>1120</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <f aca="false">N16-L16</f>
+        <v>5.51129569999989</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <f aca="false">O16/N16</f>
+        <v>0.00492079973214276</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <f aca="false">O16/M16</f>
+        <v>16.0986785061254</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1914,22 +2196,40 @@
         <v>714.77</v>
       </c>
       <c r="J17" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K17/(SQRT('Radiação Ambiente'!G17)*2.35)</f>
+        <f aca="false">K17/(SQRT(G17)*2.35)</f>
         <v>0.162038390834811</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>3.49</v>
       </c>
       <c r="L17" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I17*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I17*$B$8+$B$9</f>
         <v>1250.1035789</v>
       </c>
       <c r="M17" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I17*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J17+'Radiação Ambiente'!$C$9</f>
-        <v>0.714462537087852</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I17*$C$8)^2+($B$8*J17)^2+$C$9^2)</f>
+        <v>0.444591054520157</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>1242.5532</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <f aca="false">N17-L17</f>
+        <v>-7.55037889999994</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <f aca="false">O17/N17</f>
+        <v>-0.00607650352516089</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <f aca="false">O17/M17</f>
+        <v>-16.9827503797821</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1950,25 +2250,40 @@
         <v>830.19</v>
       </c>
       <c r="J18" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!K18/(SQRT('Radiação Ambiente'!G18)*2.35)</f>
+        <f aca="false">K18/(SQRT(G18)*2.35)</f>
         <v>0.273766658028138</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>37.27</v>
       </c>
       <c r="L18" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I18*'Radiação Ambiente'!$B$8+'Radiação Ambiente'!$B$9</f>
+        <f aca="false">I18*$B$8+$B$9</f>
         <v>1451.3464283</v>
       </c>
       <c r="M18" s="9" t="n">
-        <f aca="false">'Radiação Ambiente'!I18*'Radiação Ambiente'!$C$8+'Radiação Ambiente'!$B$8*'Radiação Ambiente'!J18+'Radiação Ambiente'!$C$9</f>
-        <v>0.962035614998121</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SQRT((I18*$C$8)^2+($B$8*J18)^2+$C$9^2)</f>
+        <v>0.618834422576549</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>1460</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <f aca="false">N18-L18</f>
+        <v>8.65357169999993</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <f aca="false">O18/N18</f>
+        <v>0.00592710390410954</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <f aca="false">O18/M18</f>
+        <v>13.9836624859528</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1988,13 +2303,13 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="E20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2004,204 +2319,331 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="E21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>53</v>
+      <c r="E21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="K21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="28" t="n">
+        <v>63</v>
+      </c>
+      <c r="F22" s="37" t="n">
         <v>242</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F22/(1+2*'Radiação Ambiente'!F22/511)</f>
+      <c r="G22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="39" t="n">
+        <f aca="false">F22/(1+2*F22/511)</f>
         <v>124.283417085427</v>
       </c>
       <c r="I22" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F22-'Radiação Ambiente'!H22</f>
+        <f aca="false">F22-H22</f>
         <v>117.716582914573</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>994</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">L22/$L$25*$N$25</f>
+        <v>31.4846441947566</v>
+      </c>
+      <c r="N22" s="40" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="28" t="n">
+        <v>65</v>
+      </c>
+      <c r="F23" s="37" t="n">
         <v>295</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F23/(1+2*'Radiação Ambiente'!F23/511)</f>
+      <c r="G23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="39" t="n">
+        <f aca="false">F23/(1+2*F23/511)</f>
         <v>136.916439600363</v>
       </c>
       <c r="I23" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F23-'Radiação Ambiente'!H23</f>
+        <f aca="false">F23-H23</f>
         <v>158.083560399637</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">L23/$L$25*$N$25</f>
+        <v>12.3214553237025</v>
+      </c>
+      <c r="N23" s="40" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="28" t="n">
+      <c r="E24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="37" t="n">
         <v>352</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F24/(1+2*'Radiação Ambiente'!F24/511)</f>
+      <c r="G24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="39" t="n">
+        <f aca="false">F24/(1+2*F24/511)</f>
         <v>148.042798353909</v>
       </c>
       <c r="I24" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F24-'Radiação Ambiente'!H24</f>
+        <f aca="false">F24-H24</f>
         <v>203.957201646091</v>
       </c>
+      <c r="K24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">L24/$L$25*$N$25</f>
+        <v>15.3939004815409</v>
+      </c>
+      <c r="N24" s="40" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="28" t="n">
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="37" t="n">
         <v>609</v>
       </c>
-      <c r="G25" s="29" t="n">
+      <c r="G25" s="38" t="n">
         <v>46.3</v>
       </c>
-      <c r="H25" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F25/(1+2*'Radiação Ambiente'!F25/511)</f>
+      <c r="H25" s="39" t="n">
+        <f aca="false">F25/(1+2*F25/511)</f>
         <v>179.987854251012</v>
       </c>
       <c r="I25" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F25-'Radiação Ambiente'!H25</f>
+        <f aca="false">F25-H25</f>
         <v>429.012145748988</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">SUM(L22:L24)</f>
+        <v>1869</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">SUM(M22:M24)</f>
+        <v>59.2</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">SUM(N22:N24)</f>
+        <v>59.2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="28" t="n">
+      <c r="E26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="37" t="n">
         <v>768</v>
       </c>
-      <c r="G26" s="29" t="n">
+      <c r="G26" s="38" t="n">
         <v>5.04</v>
       </c>
-      <c r="H26" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F26/(1+2*'Radiação Ambiente'!F26/511)</f>
+      <c r="H26" s="39" t="n">
+        <f aca="false">F26/(1+2*F26/511)</f>
         <v>191.71861260381</v>
       </c>
       <c r="I26" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F26-'Radiação Ambiente'!H26</f>
+        <f aca="false">F26-H26</f>
         <v>576.28138739619</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="28" t="n">
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="37" t="n">
         <v>1120</v>
       </c>
-      <c r="G27" s="29" t="n">
+      <c r="G27" s="38" t="n">
         <v>15.04</v>
       </c>
-      <c r="H27" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F27/(1+2*'Radiação Ambiente'!F27/511)</f>
+      <c r="H27" s="39" t="n">
+        <f aca="false">F27/(1+2*F27/511)</f>
         <v>208.040712468193</v>
       </c>
       <c r="I27" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F27-'Radiação Ambiente'!H27</f>
+        <f aca="false">F27-H27</f>
         <v>911.959287531807</v>
       </c>
+      <c r="K27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="30" t="n">
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="42" t="n">
         <v>1460</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28" t="n">
-        <f aca="false">'Radiação Ambiente'!F28/(1+2*'Radiação Ambiente'!F28/511)</f>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="n">
+        <f aca="false">F28/(1+2*F28/511)</f>
         <v>217.446808510638</v>
       </c>
-      <c r="I28" s="4" t="n">
-        <f aca="false">'Radiação Ambiente'!F28-'Radiação Ambiente'!H28</f>
+      <c r="I28" s="42" t="n">
+        <f aca="false">F28-H28</f>
         <v>1242.55319148936</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>1291</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <f aca="false">L28/$L$31*$N$31</f>
+        <v>33.7520992516739</v>
+      </c>
+      <c r="N28" s="40" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="30" t="n">
-        <f aca="false">'Radiação Ambiente'!F28-511</f>
+      <c r="E29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="42" t="n">
+        <f aca="false">F28-511</f>
         <v>949</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>377</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <f aca="false">L29/$L$31*$N$31</f>
+        <v>9.85634501772351</v>
+      </c>
+      <c r="N29" s="40" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="30" t="n">
-        <f aca="false">'Radiação Ambiente'!F28-1022</f>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="42" t="n">
+        <f aca="false">F28-1022</f>
         <v>438</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="38"/>
+      <c r="H30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>871</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <f aca="false">L30/$L$31*$N$31</f>
+        <v>22.7715557306026</v>
+      </c>
+      <c r="N30" s="40" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <f aca="false">SUM(L28:L30)</f>
+        <v>2539</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <f aca="false">SUM(M28:M30)</f>
+        <v>66.38</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <f aca="false">SUM(N28:N30)</f>
+        <v>66.38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E3:R3"/>
     <mergeCell ref="E20:I20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2221,58 +2663,58 @@
   </sheetPr>
   <dimension ref="B3:J31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5465587044534"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5910931174089"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>63</v>
+      <c r="D3" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="32" t="s">
-        <v>66</v>
+      <c r="B4" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D4" s="10" t="n">
         <f aca="false">'Resolução Energia'!H20*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
@@ -2286,7 +2728,7 @@
         <f aca="false">'Resolução Energia'!J20*'Fonte Desconhecida'!$B$9</f>
         <v>4.8994317</v>
       </c>
-      <c r="G4" s="21" t="n">
+      <c r="G4" s="24" t="n">
         <f aca="false">J20*'Fonte Desconhecida'!$C$9</f>
         <v>0.00128465894</v>
       </c>
@@ -2301,9 +2743,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="32"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D5" s="10" t="n">
         <f aca="false">'Resolução Energia'!H21*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
@@ -2317,7 +2759,7 @@
         <f aca="false">'Resolução Energia'!J21*'Fonte Desconhecida'!$B$9</f>
         <v>42.5954151</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="24" t="n">
         <f aca="false">J21*'Fonte Desconhecida'!$C$9</f>
         <v>0.01116876082</v>
       </c>
@@ -2332,11 +2774,11 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
-        <v>69</v>
+      <c r="B6" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D6" s="10" t="n">
         <f aca="false">'Resolução Energia'!H22*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
@@ -2350,7 +2792,7 @@
         <f aca="false">'Resolução Energia'!J22*'Fonte Desconhecida'!$B$9</f>
         <v>43.2056646</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="24" t="n">
         <f aca="false">J22*'Fonte Desconhecida'!$C$9</f>
         <v>0.01132877172</v>
       </c>
@@ -2365,9 +2807,9 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="32"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D7" s="10" t="n">
         <f aca="false">'Resolução Energia'!H23*'Fonte Desconhecida'!$B$9+'Fonte Desconhecida'!$B$10</f>
@@ -2381,7 +2823,7 @@
         <f aca="false">'Resolução Energia'!J23*'Fonte Desconhecida'!$B$9</f>
         <v>44.984106</v>
       </c>
-      <c r="G7" s="21" t="n">
+      <c r="G7" s="24" t="n">
         <f aca="false">J23*'Fonte Desconhecida'!$C$9</f>
         <v>0.0117950892</v>
       </c>
@@ -2396,11 +2838,11 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="32" t="s">
-        <v>72</v>
+      <c r="B8" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>27.7563947</v>
@@ -2412,7 +2854,7 @@
         <f aca="false">'Resolução Energia'!H26*'Fonte Desconhecida'!$B$9</f>
         <v>5.6491668</v>
       </c>
-      <c r="G8" s="21" t="n">
+      <c r="G8" s="24" t="n">
         <f aca="false">H26*'Fonte Desconhecida'!$C$9</f>
         <v>0.00148124376</v>
       </c>
@@ -2427,9 +2869,9 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="32"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>118.2999848</v>
@@ -2441,7 +2883,7 @@
         <f aca="false">'Resolução Energia'!H27*'Fonte Desconhecida'!$B$9</f>
         <v>8.3865717</v>
       </c>
-      <c r="G9" s="21" t="n">
+      <c r="G9" s="24" t="n">
         <f aca="false">H27*'Fonte Desconhecida'!$C$9</f>
         <v>0.00219900694</v>
       </c>
@@ -2456,11 +2898,11 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32" t="s">
-        <v>75</v>
+      <c r="B10" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>603.1693661</v>
@@ -2472,7 +2914,7 @@
         <f aca="false">'Resolução Energia'!H30*'Fonte Desconhecida'!$B$9</f>
         <v>32.6919375</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="24" t="n">
         <f aca="false">H30*'Fonte Desconhecida'!$C$9</f>
         <v>0.0085720125</v>
       </c>
@@ -2487,21 +2929,21 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="32"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1451.3464283</v>
       </c>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="45" t="n">
         <v>0.962035614998121</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">'Resolução Energia'!H31*'Fonte Desconhecida'!$B$9</f>
         <v>64.9828539</v>
       </c>
-      <c r="G11" s="21" t="n">
+      <c r="G11" s="24" t="n">
         <f aca="false">H31*'Fonte Desconhecida'!$C$9</f>
         <v>0.01703887498</v>
       </c>
@@ -2546,7 +2988,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="n">
@@ -2576,7 +3018,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="n">
@@ -2606,7 +3048,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="4" t="n">
@@ -2636,7 +3078,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="n">
@@ -2870,381 +3312,381 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4777327935223"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="I4" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="39" t="n">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="35" t="n">
+      <c r="C5" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="n">
+      <c r="D5" s="47" t="n">
         <v>41373</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="47" t="n">
         <v>266</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="47" t="n">
         <v>758.74</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H5/(SQRT('Atenuação Na Matéria'!D5)*2.35)</f>
         <v>0.100795333653087</v>
       </c>
-      <c r="H5" s="35" t="n">
+      <c r="H5" s="47" t="n">
         <v>48.18</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="41" t="n">
+      <c r="J5" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E5/'Atenuação Na Matéria'!D5)^2)</f>
         <v>0.00909242277792868</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="39" t="n">
+      <c r="A6" s="47"/>
+      <c r="B6" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="n">
+      <c r="C6" s="47" t="n">
         <v>900</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="47" t="n">
         <v>39263</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="47" t="n">
         <v>289</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="47" t="n">
         <v>757.4</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H6/(SQRT('Atenuação Na Matéria'!D6)*2.35)</f>
         <v>0.0999248374025134</v>
       </c>
-      <c r="H6" s="35" t="n">
+      <c r="H6" s="47" t="n">
         <v>46.53</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D6)</f>
         <v>0.022733533165861</v>
       </c>
-      <c r="J6" s="41" t="n">
+      <c r="J6" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E6/'Atenuação Na Matéria'!D6)^2)</f>
         <v>0.00977316704679702</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="39" t="n">
+      <c r="A7" s="47"/>
+      <c r="B7" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="47" t="n">
         <v>1800</v>
       </c>
-      <c r="D7" s="35" t="n">
+      <c r="D7" s="47" t="n">
         <v>37101</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="47" t="n">
         <v>287</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="47" t="n">
         <v>757.61</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H7/(SQRT('Atenuação Na Matéria'!D7)*2.35)</f>
         <v>0.106329847658248</v>
       </c>
-      <c r="H7" s="35" t="n">
+      <c r="H7" s="47" t="n">
         <v>48.13</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D7)</f>
         <v>0.0473313976816241</v>
       </c>
-      <c r="J7" s="41" t="n">
+      <c r="J7" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E7/'Atenuação Na Matéria'!D7)^2)</f>
         <v>0.0100586386099764</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="35" t="n">
+      <c r="A8" s="47"/>
+      <c r="B8" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="47" t="n">
         <v>2700</v>
       </c>
-      <c r="D8" s="35" t="n">
+      <c r="D8" s="47" t="n">
         <v>33153</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="47" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="35" t="n">
+      <c r="F8" s="47" t="n">
         <v>757.7</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H8/(SQRT('Atenuação Na Matéria'!D8)*2.35)</f>
         <v>0.110029002330371</v>
       </c>
-      <c r="H8" s="35" t="n">
+      <c r="H8" s="47" t="n">
         <v>47.08</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D8)</f>
         <v>0.096194179559091</v>
       </c>
-      <c r="J8" s="41" t="n">
+      <c r="J8" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E8/'Atenuação Na Matéria'!D8)^2)</f>
         <v>0.0103287373443672</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="39" t="n">
+      <c r="A9" s="47"/>
+      <c r="B9" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="35" t="n">
+      <c r="C9" s="47" t="n">
         <v>3600</v>
       </c>
-      <c r="D9" s="35" t="n">
+      <c r="D9" s="47" t="n">
         <v>32514</v>
       </c>
-      <c r="E9" s="35" t="n">
+      <c r="E9" s="47" t="n">
         <v>274</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="47" t="n">
         <v>756.98</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H9/(SQRT('Atenuação Na Matéria'!D9)*2.35)</f>
         <v>0.107541469256278</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="47" t="n">
         <v>45.57</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D9)</f>
         <v>0.1046466117936</v>
       </c>
-      <c r="J9" s="41" t="n">
+      <c r="J9" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E9/'Atenuação Na Matéria'!D9)^2)</f>
         <v>0.0105996579678561</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="35" t="n">
+      <c r="A10" s="47"/>
+      <c r="B10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="47" t="n">
         <v>5400</v>
       </c>
-      <c r="D10" s="35" t="n">
+      <c r="D10" s="47" t="n">
         <v>23440</v>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="47" t="n">
         <v>272</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="47" t="n">
         <v>757.25</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H10/(SQRT('Atenuação Na Matéria'!D10)*2.35)</f>
         <v>0.134523666504368</v>
       </c>
-      <c r="H10" s="35" t="n">
+      <c r="H10" s="47" t="n">
         <v>48.4</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D10)</f>
         <v>0.246759405843581</v>
       </c>
-      <c r="J10" s="41" t="n">
+      <c r="J10" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E10/'Atenuação Na Matéria'!D10)^2)</f>
         <v>0.0132661640961049</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="39" t="n">
+      <c r="A11" s="47"/>
+      <c r="B11" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="35" t="n">
+      <c r="C11" s="47" t="n">
         <v>7200</v>
       </c>
-      <c r="D11" s="35" t="n">
+      <c r="D11" s="47" t="n">
         <v>18661</v>
       </c>
-      <c r="E11" s="35" t="n">
+      <c r="E11" s="47" t="n">
         <v>246</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="47" t="n">
         <v>756.03</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="45" t="n">
         <f aca="false">'Atenuação Na Matéria'!H11/(SQRT('Atenuação Na Matéria'!D11)*2.35)</f>
         <v>0.144569357097493</v>
       </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="47" t="n">
         <v>46.41</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="52" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D11)</f>
         <v>0.345782100314776</v>
       </c>
-      <c r="J11" s="41" t="n">
+      <c r="J11" s="53" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E11/'Atenuação Na Matéria'!D11)^2)</f>
         <v>0.0146668440470279</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraçao" sheetId="1" state="visible" r:id="rId2"/>
@@ -329,7 +329,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -351,12 +351,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -556,7 +550,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,30 +651,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,7 +707,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -858,9 +832,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.0890688259109"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,23 +1004,23 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9028340080972"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.3765182186235"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,24 +1459,24 @@
   </sheetPr>
   <dimension ref="A3:R31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8947368421053"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.3765182186235"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1570,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -1806,42 +1780,42 @@
         <f aca="false">O9/M9</f>
         <v>-7.67081821860668</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="I10" s="28" t="n">
+      <c r="I10" s="25" t="n">
         <v>227.02</v>
       </c>
-      <c r="J10" s="29" t="n">
+      <c r="J10" s="9" t="n">
         <f aca="false">K10/(SQRT(G10)*2.35)</f>
         <v>0.0830278087225997</v>
       </c>
-      <c r="K10" s="28" t="n">
+      <c r="K10" s="25" t="n">
         <v>4.23</v>
       </c>
-      <c r="L10" s="29" t="n">
+      <c r="L10" s="9" t="n">
         <f aca="false">I10*$B$8+$B$9</f>
         <v>399.6773114</v>
       </c>
-      <c r="M10" s="29" t="n">
+      <c r="M10" s="9" t="n">
         <f aca="false">SQRT((I10*$C$8)^2+($B$8*J10)^2+$C$9^2)</f>
         <v>0.206852549864591</v>
       </c>
-      <c r="N10" s="30" t="n">
+      <c r="N10" s="4" t="n">
         <v>429.0125</v>
       </c>
       <c r="O10" s="4" t="n">
@@ -1856,7 +1830,7 @@
         <f aca="false">O10/M10</f>
         <v>141.816905903278</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1914,49 +1888,49 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="32" t="n">
+      <c r="G12" s="27" t="n">
         <v>352</v>
       </c>
-      <c r="H12" s="32" t="n">
+      <c r="H12" s="27" t="n">
         <v>231</v>
       </c>
-      <c r="I12" s="32" t="n">
+      <c r="I12" s="27" t="n">
         <v>283.99</v>
       </c>
-      <c r="J12" s="33" t="n">
+      <c r="J12" s="28" t="n">
         <f aca="false">K12/(SQRT(G12)*2.35)</f>
         <v>0.0390111949076223</v>
       </c>
-      <c r="K12" s="32" t="n">
+      <c r="K12" s="27" t="n">
         <v>1.72</v>
       </c>
-      <c r="L12" s="33" t="n">
+      <c r="L12" s="28" t="n">
         <f aca="false">I12*$B$8+$B$9</f>
         <v>499.0084943</v>
       </c>
-      <c r="M12" s="33" t="n">
+      <c r="M12" s="28" t="n">
         <f aca="false">SQRT((I12*$C$8)^2+($B$8*J12)^2+$C$9^2)</f>
         <v>0.180395050507107</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2303,13 +2277,13 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2322,10 +2296,10 @@
       <c r="E21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="31" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="23" t="s">
@@ -2355,13 +2329,13 @@
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="37" t="n">
+      <c r="F22" s="32" t="n">
         <v>242</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="39" t="n">
+      <c r="H22" s="34" t="n">
         <f aca="false">F22/(1+2*F22/511)</f>
         <v>124.283417085427</v>
       </c>
@@ -2380,7 +2354,7 @@
         <f aca="false">L22/$L$25*$N$25</f>
         <v>31.4846441947566</v>
       </c>
-      <c r="N22" s="40" t="n">
+      <c r="N22" s="35" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2391,13 +2365,13 @@
       <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="37" t="n">
+      <c r="F23" s="32" t="n">
         <v>295</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="39" t="n">
+      <c r="H23" s="34" t="n">
         <f aca="false">F23/(1+2*F23/511)</f>
         <v>136.916439600363</v>
       </c>
@@ -2416,7 +2390,7 @@
         <f aca="false">L23/$L$25*$N$25</f>
         <v>12.3214553237025</v>
       </c>
-      <c r="N23" s="40" t="n">
+      <c r="N23" s="35" t="n">
         <v>19.5</v>
       </c>
     </row>
@@ -2424,13 +2398,13 @@
       <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="37" t="n">
+      <c r="F24" s="32" t="n">
         <v>352</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="39" t="n">
+      <c r="H24" s="34" t="n">
         <f aca="false">F24/(1+2*F24/511)</f>
         <v>148.042798353909</v>
       </c>
@@ -2438,7 +2412,7 @@
         <f aca="false">F24-H24</f>
         <v>203.957201646091</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="L24" s="4" t="n">
@@ -2448,7 +2422,7 @@
         <f aca="false">L24/$L$25*$N$25</f>
         <v>15.3939004815409</v>
       </c>
-      <c r="N24" s="40" t="n">
+      <c r="N24" s="35" t="n">
         <v>37.2</v>
       </c>
     </row>
@@ -2456,13 +2430,13 @@
       <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="37" t="n">
+      <c r="F25" s="32" t="n">
         <v>609</v>
       </c>
-      <c r="G25" s="38" t="n">
+      <c r="G25" s="33" t="n">
         <v>46.3</v>
       </c>
-      <c r="H25" s="39" t="n">
+      <c r="H25" s="34" t="n">
         <f aca="false">F25/(1+2*F25/511)</f>
         <v>179.987854251012</v>
       </c>
@@ -2490,13 +2464,13 @@
       <c r="E26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="37" t="n">
+      <c r="F26" s="32" t="n">
         <v>768</v>
       </c>
-      <c r="G26" s="38" t="n">
+      <c r="G26" s="33" t="n">
         <v>5.04</v>
       </c>
-      <c r="H26" s="39" t="n">
+      <c r="H26" s="34" t="n">
         <f aca="false">F26/(1+2*F26/511)</f>
         <v>191.71861260381</v>
       </c>
@@ -2509,13 +2483,13 @@
       <c r="E27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="37" t="n">
+      <c r="F27" s="32" t="n">
         <v>1120</v>
       </c>
-      <c r="G27" s="38" t="n">
+      <c r="G27" s="33" t="n">
         <v>15.04</v>
       </c>
-      <c r="H27" s="39" t="n">
+      <c r="H27" s="34" t="n">
         <f aca="false">F27/(1+2*F27/511)</f>
         <v>208.040712468193</v>
       </c>
@@ -2523,16 +2497,16 @@
         <f aca="false">F27-H27</f>
         <v>911.959287531807</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2540,15 +2514,15 @@
       <c r="E28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="42" t="n">
+      <c r="F28" s="37" t="n">
         <v>1460</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39" t="n">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="n">
         <f aca="false">F28/(1+2*F28/511)</f>
         <v>217.446808510638</v>
       </c>
-      <c r="I28" s="42" t="n">
+      <c r="I28" s="37" t="n">
         <f aca="false">F28-H28</f>
         <v>1242.55319148936</v>
       </c>
@@ -2562,7 +2536,7 @@
         <f aca="false">L28/$L$31*$N$31</f>
         <v>33.7520992516739</v>
       </c>
-      <c r="N28" s="40" t="n">
+      <c r="N28" s="35" t="n">
         <v>46.3</v>
       </c>
     </row>
@@ -2570,12 +2544,12 @@
       <c r="E29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="42" t="n">
+      <c r="F29" s="37" t="n">
         <f aca="false">F28-511</f>
         <v>949</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="34" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -2591,7 +2565,7 @@
         <f aca="false">L29/$L$31*$N$31</f>
         <v>9.85634501772351</v>
       </c>
-      <c r="N29" s="40" t="n">
+      <c r="N29" s="35" t="n">
         <v>5.04</v>
       </c>
     </row>
@@ -2599,18 +2573,18 @@
       <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="42" t="n">
+      <c r="F30" s="37" t="n">
         <f aca="false">F28-1022</f>
         <v>438</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="34" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>73</v>
       </c>
       <c r="L30" s="4" t="n">
@@ -2620,7 +2594,7 @@
         <f aca="false">L30/$L$31*$N$31</f>
         <v>22.7715557306026</v>
       </c>
-      <c r="N30" s="40" t="n">
+      <c r="N30" s="35" t="n">
         <v>15.04</v>
       </c>
     </row>
@@ -2663,54 +2637,54 @@
   </sheetPr>
   <dimension ref="B3:J31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.80566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1862348178138"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.80566801619433"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="38" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2733,17 +2707,17 @@
         <v>0.00128465894</v>
       </c>
       <c r="H4" s="4" t="n">
-        <f aca="false">F4/D4</f>
-        <v>0.153894272768122</v>
+        <f aca="false">F4/D4 *100</f>
+        <v>15.3894272768122</v>
       </c>
       <c r="I4" s="4" t="n">
-        <f aca="false">SQRT((G4/D4)^2+(F4*E4/D4)^2)</f>
-        <v>0.0331588177017894</v>
+        <f aca="false">SQRT((G4/D4)^2+(F4*E4/D4^2)^2)*100</f>
+        <v>0.104232020680522</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="44"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
@@ -2764,17 +2738,17 @@
         <v>0.01116876082</v>
       </c>
       <c r="H5" s="4" t="n">
-        <f aca="false">F5/D5</f>
-        <v>0.0639329149405928</v>
+        <f aca="false">F5/D5 *100</f>
+        <v>6.39329149405928</v>
       </c>
       <c r="I5" s="4" t="n">
-        <f aca="false">SQRT((G5/D5)^2+(F5*E5/D5)^2)</f>
-        <v>0.0418090512930633</v>
+        <f aca="false">SQRT((G5/D5)^2+(F5*E5/D5^2)^2)*100</f>
+        <v>0.00649531366813278</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2797,17 +2771,17 @@
         <v>0.01132877172</v>
       </c>
       <c r="H6" s="4" t="n">
-        <f aca="false">F6/D6</f>
-        <v>0.0368399533088516</v>
+        <f aca="false">F6/D6 *100</f>
+        <v>3.68399533088516</v>
       </c>
       <c r="I6" s="4" t="n">
-        <f aca="false">SQRT((G6/D6)^2+(F6*E6/D6)^2)</f>
-        <v>0.030942938377872</v>
+        <f aca="false">SQRT((G6/D6)^2+(F6*E6/D6^2)^2)*100</f>
+        <v>0.00280966526137904</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>84</v>
       </c>
@@ -2828,17 +2802,17 @@
         <v>0.0117950892</v>
       </c>
       <c r="H7" s="4" t="n">
-        <f aca="false">F7/D7</f>
-        <v>0.033830772932917</v>
+        <f aca="false">F7/D7 *100</f>
+        <v>3.3830772932917</v>
       </c>
       <c r="I7" s="4" t="n">
-        <f aca="false">SQRT((G7/D7)^2+(F7*E7/D7)^2)</f>
-        <v>0.0320172340885956</v>
+        <f aca="false">SQRT((G7/D7)^2+(F7*E7/D7^2)^2)*100</f>
+        <v>0.00256608903699153</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2859,17 +2833,17 @@
         <v>0.00148124376</v>
       </c>
       <c r="H8" s="4" t="n">
-        <f aca="false">F8/D8</f>
-        <v>0.203526677764097</v>
+        <f aca="false">F8/D8 *100</f>
+        <v>20.3526677764097</v>
       </c>
       <c r="I8" s="4" t="n">
-        <f aca="false">SQRT((G8/D8)^2+(F8*E8/D8)^2)</f>
-        <v>0.0245613330801985</v>
+        <f aca="false">SQRT((G8/D8)^2+(F8*E8/D8^2)^2)*100</f>
+        <v>0.0886494817770351</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="44"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
@@ -2888,17 +2862,17 @@
         <v>0.00219900694</v>
       </c>
       <c r="H9" s="4" t="n">
-        <f aca="false">F9/D9</f>
-        <v>0.0708924157021532</v>
+        <f aca="false">F9/D9 *100</f>
+        <v>7.08924157021532</v>
       </c>
       <c r="I9" s="4" t="n">
-        <f aca="false">SQRT((G9/D9)^2+(F9*E9/D9)^2)</f>
-        <v>0.0178743332703145</v>
+        <f aca="false">SQRT((G9/D9)^2+(F9*E9/D9^2)^2)*100</f>
+        <v>0.0152232336961099</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2919,24 +2893,24 @@
         <v>0.0085720125</v>
       </c>
       <c r="H10" s="4" t="n">
-        <f aca="false">F10/D10</f>
-        <v>0.0542002617131918</v>
+        <f aca="false">F10/D10 *100</f>
+        <v>5.42002617131918</v>
       </c>
       <c r="I10" s="4" t="n">
-        <f aca="false">SQRT((G10/D10)^2+(F10*E10/D10)^2)</f>
-        <v>0.035202234453576</v>
+        <f aca="false">SQRT((G10/D10)^2+(F10*E10/D10^2)^2)*100</f>
+        <v>0.00600675031689182</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="44"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>1451.3464283</v>
       </c>
-      <c r="E11" s="45" t="n">
+      <c r="E11" s="40" t="n">
         <v>0.962035614998121</v>
       </c>
       <c r="F11" s="4" t="n">
@@ -2948,12 +2922,12 @@
         <v>0.01703887498</v>
       </c>
       <c r="H11" s="4" t="n">
-        <f aca="false">F11/D11</f>
-        <v>0.0447741852895288</v>
+        <f aca="false">F11/D11 *100</f>
+        <v>4.47741852895288</v>
       </c>
       <c r="I11" s="4" t="n">
-        <f aca="false">SQRT((G11/D11)^2+(F11*E11/D11)^2)</f>
-        <v>0.0430743624809442</v>
+        <f aca="false">SQRT((G11/D11)^2+(F11*E11/D11^2)^2)*100</f>
+        <v>0.00319165413937925</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -2988,7 +2962,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="n">
@@ -3018,7 +2992,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="n">
@@ -3048,7 +3022,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="4" t="n">
@@ -3078,7 +3052,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="n">
@@ -3312,381 +3286,381 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="12.3765182186235"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47"/>
-      <c r="B5" s="51" t="n">
+      <c r="A5" s="42"/>
+      <c r="B5" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="42" t="n">
         <v>41373</v>
       </c>
-      <c r="E5" s="47" t="n">
+      <c r="E5" s="42" t="n">
         <v>266</v>
       </c>
-      <c r="F5" s="47" t="n">
+      <c r="F5" s="42" t="n">
         <v>758.74</v>
       </c>
-      <c r="G5" s="45" t="n">
+      <c r="G5" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H5/(SQRT('Atenuação Na Matéria'!D5)*2.35)</f>
         <v>0.100795333653087</v>
       </c>
-      <c r="H5" s="47" t="n">
+      <c r="H5" s="42" t="n">
         <v>48.18</v>
       </c>
-      <c r="I5" s="52" t="n">
+      <c r="I5" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="53" t="n">
+      <c r="J5" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E5/'Atenuação Na Matéria'!D5)^2)</f>
         <v>0.00909242277792868</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
-      <c r="B6" s="51" t="n">
+      <c r="A6" s="42"/>
+      <c r="B6" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="42" t="n">
         <v>900</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="42" t="n">
         <v>39263</v>
       </c>
-      <c r="E6" s="47" t="n">
+      <c r="E6" s="42" t="n">
         <v>289</v>
       </c>
-      <c r="F6" s="47" t="n">
+      <c r="F6" s="42" t="n">
         <v>757.4</v>
       </c>
-      <c r="G6" s="45" t="n">
+      <c r="G6" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H6/(SQRT('Atenuação Na Matéria'!D6)*2.35)</f>
         <v>0.0999248374025134</v>
       </c>
-      <c r="H6" s="47" t="n">
+      <c r="H6" s="42" t="n">
         <v>46.53</v>
       </c>
-      <c r="I6" s="52" t="n">
+      <c r="I6" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D6)</f>
         <v>0.022733533165861</v>
       </c>
-      <c r="J6" s="53" t="n">
+      <c r="J6" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E6/'Atenuação Na Matéria'!D6)^2)</f>
         <v>0.00977316704679702</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
-      <c r="B7" s="51" t="n">
+      <c r="A7" s="42"/>
+      <c r="B7" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="42" t="n">
         <v>1800</v>
       </c>
-      <c r="D7" s="47" t="n">
+      <c r="D7" s="42" t="n">
         <v>37101</v>
       </c>
-      <c r="E7" s="47" t="n">
+      <c r="E7" s="42" t="n">
         <v>287</v>
       </c>
-      <c r="F7" s="47" t="n">
+      <c r="F7" s="42" t="n">
         <v>757.61</v>
       </c>
-      <c r="G7" s="45" t="n">
+      <c r="G7" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H7/(SQRT('Atenuação Na Matéria'!D7)*2.35)</f>
         <v>0.106329847658248</v>
       </c>
-      <c r="H7" s="47" t="n">
+      <c r="H7" s="42" t="n">
         <v>48.13</v>
       </c>
-      <c r="I7" s="52" t="n">
+      <c r="I7" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D7)</f>
         <v>0.0473313976816241</v>
       </c>
-      <c r="J7" s="53" t="n">
+      <c r="J7" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E7/'Atenuação Na Matéria'!D7)^2)</f>
         <v>0.0100586386099764</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="47" t="n">
+      <c r="C8" s="42" t="n">
         <v>2700</v>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="42" t="n">
         <v>33153</v>
       </c>
-      <c r="E8" s="47" t="n">
+      <c r="E8" s="42" t="n">
         <v>268</v>
       </c>
-      <c r="F8" s="47" t="n">
+      <c r="F8" s="42" t="n">
         <v>757.7</v>
       </c>
-      <c r="G8" s="45" t="n">
+      <c r="G8" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H8/(SQRT('Atenuação Na Matéria'!D8)*2.35)</f>
         <v>0.110029002330371</v>
       </c>
-      <c r="H8" s="47" t="n">
+      <c r="H8" s="42" t="n">
         <v>47.08</v>
       </c>
-      <c r="I8" s="52" t="n">
+      <c r="I8" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D8)</f>
         <v>0.096194179559091</v>
       </c>
-      <c r="J8" s="53" t="n">
+      <c r="J8" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E8/'Atenuação Na Matéria'!D8)^2)</f>
         <v>0.0103287373443672</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47"/>
-      <c r="B9" s="51" t="n">
+      <c r="A9" s="42"/>
+      <c r="B9" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="42" t="n">
         <v>3600</v>
       </c>
-      <c r="D9" s="47" t="n">
+      <c r="D9" s="42" t="n">
         <v>32514</v>
       </c>
-      <c r="E9" s="47" t="n">
+      <c r="E9" s="42" t="n">
         <v>274</v>
       </c>
-      <c r="F9" s="47" t="n">
+      <c r="F9" s="42" t="n">
         <v>756.98</v>
       </c>
-      <c r="G9" s="45" t="n">
+      <c r="G9" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H9/(SQRT('Atenuação Na Matéria'!D9)*2.35)</f>
         <v>0.107541469256278</v>
       </c>
-      <c r="H9" s="47" t="n">
+      <c r="H9" s="42" t="n">
         <v>45.57</v>
       </c>
-      <c r="I9" s="52" t="n">
+      <c r="I9" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D9)</f>
         <v>0.1046466117936</v>
       </c>
-      <c r="J9" s="53" t="n">
+      <c r="J9" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E9/'Atenuação Na Matéria'!D9)^2)</f>
         <v>0.0105996579678561</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="47" t="n">
+      <c r="C10" s="42" t="n">
         <v>5400</v>
       </c>
-      <c r="D10" s="47" t="n">
+      <c r="D10" s="42" t="n">
         <v>23440</v>
       </c>
-      <c r="E10" s="47" t="n">
+      <c r="E10" s="42" t="n">
         <v>272</v>
       </c>
-      <c r="F10" s="47" t="n">
+      <c r="F10" s="42" t="n">
         <v>757.25</v>
       </c>
-      <c r="G10" s="45" t="n">
+      <c r="G10" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H10/(SQRT('Atenuação Na Matéria'!D10)*2.35)</f>
         <v>0.134523666504368</v>
       </c>
-      <c r="H10" s="47" t="n">
+      <c r="H10" s="42" t="n">
         <v>48.4</v>
       </c>
-      <c r="I10" s="52" t="n">
+      <c r="I10" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D10)</f>
         <v>0.246759405843581</v>
       </c>
-      <c r="J10" s="53" t="n">
+      <c r="J10" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E10/'Atenuação Na Matéria'!D10)^2)</f>
         <v>0.0132661640961049</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47"/>
-      <c r="B11" s="51" t="n">
+      <c r="A11" s="42"/>
+      <c r="B11" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="47" t="n">
+      <c r="C11" s="42" t="n">
         <v>7200</v>
       </c>
-      <c r="D11" s="47" t="n">
+      <c r="D11" s="42" t="n">
         <v>18661</v>
       </c>
-      <c r="E11" s="47" t="n">
+      <c r="E11" s="42" t="n">
         <v>246</v>
       </c>
-      <c r="F11" s="47" t="n">
+      <c r="F11" s="42" t="n">
         <v>756.03</v>
       </c>
-      <c r="G11" s="45" t="n">
+      <c r="G11" s="40" t="n">
         <f aca="false">'Atenuação Na Matéria'!H11/(SQRT('Atenuação Na Matéria'!D11)*2.35)</f>
         <v>0.144569357097493</v>
       </c>
-      <c r="H11" s="47" t="n">
+      <c r="H11" s="42" t="n">
         <v>46.41</v>
       </c>
-      <c r="I11" s="52" t="n">
+      <c r="I11" s="47" t="n">
         <f aca="false">LOG('Atenuação Na Matéria'!$D$5/'Atenuação Na Matéria'!D11)</f>
         <v>0.345782100314776</v>
       </c>
-      <c r="J11" s="53" t="n">
+      <c r="J11" s="48" t="n">
         <f aca="false">SQRT(('Atenuação Na Matéria'!$E$5/'Atenuação Na Matéria'!$D$5)^2+('Atenuação Na Matéria'!E11/'Atenuação Na Matéria'!D11)^2)</f>
         <v>0.0146668440470279</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -827,14 +827,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="I4:I11 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3765182186235"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.0485829959514"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.0485829959514"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,22 +1005,22 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="1" sqref="I4:I11 M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0445344129555"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2307692307692"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3724696356275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9028340080972"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.5263157894737"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,23 +1460,23 @@
   <dimension ref="A3:R31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="I4:I11 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8947368421053"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5141700404858"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3724696356275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8016194331984"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3724696356275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.5263157894737"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,22 +2638,22 @@
   <dimension ref="B3:J31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.80566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1862348178138"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.80566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7611336032389"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9028340080972"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.331983805668"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9028340080972"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7611336032389"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,7 +2711,7 @@
         <v>15.3894272768122</v>
       </c>
       <c r="I4" s="4" t="n">
-        <f aca="false">SQRT((G4/D4)^2+(F4*E4/D4^2)^2)*100</f>
+        <f aca="false">SQRT((G4/D4)^2+(F4*E4/(D4)^2)^2)*100</f>
         <v>0.104232020680522</v>
       </c>
       <c r="J4" s="4"/>
@@ -2742,7 +2742,7 @@
         <v>6.39329149405928</v>
       </c>
       <c r="I5" s="4" t="n">
-        <f aca="false">SQRT((G5/D5)^2+(F5*E5/D5^2)^2)*100</f>
+        <f aca="false">SQRT((G5/D5)^2+(F5*E5/(D5)^2)^2)*100</f>
         <v>0.00649531366813278</v>
       </c>
       <c r="J5" s="4"/>
@@ -2775,7 +2775,7 @@
         <v>3.68399533088516</v>
       </c>
       <c r="I6" s="4" t="n">
-        <f aca="false">SQRT((G6/D6)^2+(F6*E6/D6^2)^2)*100</f>
+        <f aca="false">SQRT((G6/D6)^2+(F6*E6/(D6)^2)^2)*100</f>
         <v>0.00280966526137904</v>
       </c>
       <c r="J6" s="4"/>
@@ -2806,7 +2806,7 @@
         <v>3.3830772932917</v>
       </c>
       <c r="I7" s="4" t="n">
-        <f aca="false">SQRT((G7/D7)^2+(F7*E7/D7^2)^2)*100</f>
+        <f aca="false">SQRT((G7/D7)^2+(F7*E7/(D7)^2)^2)*100</f>
         <v>0.00256608903699153</v>
       </c>
       <c r="J7" s="4"/>
@@ -2837,7 +2837,7 @@
         <v>20.3526677764097</v>
       </c>
       <c r="I8" s="4" t="n">
-        <f aca="false">SQRT((G8/D8)^2+(F8*E8/D8^2)^2)*100</f>
+        <f aca="false">SQRT((G8/D8)^2+(F8*E8/(D8)^2)^2)*100</f>
         <v>0.0886494817770351</v>
       </c>
       <c r="J8" s="4"/>
@@ -2866,7 +2866,7 @@
         <v>7.08924157021532</v>
       </c>
       <c r="I9" s="4" t="n">
-        <f aca="false">SQRT((G9/D9)^2+(F9*E9/D9^2)^2)*100</f>
+        <f aca="false">SQRT((G9/D9)^2+(F9*E9/(D9)^2)^2)*100</f>
         <v>0.0152232336961099</v>
       </c>
       <c r="J9" s="4"/>
@@ -2897,7 +2897,7 @@
         <v>5.42002617131918</v>
       </c>
       <c r="I10" s="4" t="n">
-        <f aca="false">SQRT((G10/D10)^2+(F10*E10/D10^2)^2)*100</f>
+        <f aca="false">SQRT((G10/D10)^2+(F10*E10/(D10)^2)^2)*100</f>
         <v>0.00600675031689182</v>
       </c>
       <c r="J10" s="4"/>
@@ -2926,7 +2926,7 @@
         <v>4.47741852895288</v>
       </c>
       <c r="I11" s="4" t="n">
-        <f aca="false">SQRT((G11/D11)^2+(F11*E11/D11^2)^2)*100</f>
+        <f aca="false">SQRT((G11/D11)^2+(F11*E11/(D11)^2)^2)*100</f>
         <v>0.00319165413937925</v>
       </c>
       <c r="J11" s="4"/>
@@ -3281,20 +3281,20 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="I4:I11 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="12.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9028340080972"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.5263157894737"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/gamma/Gamma_Semana2.xlsx
+++ b/gamma/Gamma_Semana2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
   <si>
     <t xml:space="preserve">Evento</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussiano 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gaussiano 8</t>
@@ -335,7 +338,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,7 +359,6 @@
       <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -827,14 +828,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="I4:I11 F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.0485829959514"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.0485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="12.0890688259109"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.0890688259109"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,22 +1006,22 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="1" sqref="I4:I11 M5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7611336032389"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2307692307692"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3724696356275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.6599190283401"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.6599190283401"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.8542510121458"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,24 +1460,24 @@
   </sheetPr>
   <dimension ref="A3:R31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="I4:I11 E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5141700404858"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3724696356275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8016194331984"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3724696356275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9554655870445"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.6599190283401"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.9028340080972"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.6599190283401"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.8542510121458"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,25 +2636,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J31"/>
+  <dimension ref="B3:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4:I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9028340080972"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9028340080972"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.0485829959514"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9554655870445"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7611336032389"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3724696356275"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.7125506072874"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,30 +2876,30 @@
       <c r="B10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="10" t="n">
-        <v>603.1693661</v>
+      <c r="D10" s="9" t="n">
+        <v>242.0585834</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.649484531479614</v>
+        <v>0.223128556635732</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">'Resolução Energia'!H30*'Fonte Desconhecida'!$B$9</f>
-        <v>32.6919375</v>
+        <v>13.8265101</v>
       </c>
       <c r="G10" s="24" t="n">
         <f aca="false">H30*'Fonte Desconhecida'!$C$9</f>
-        <v>0.0085720125</v>
+        <v>0.00362538982</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">F10/D10 *100</f>
-        <v>5.42002617131918</v>
+        <v>5.71205115133298</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">SQRT((G10/D10)^2+(F10*E10/(D10)^2)^2)*100</f>
-        <v>0.00600675031689182</v>
+        <v>0.00547421689349508</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -2908,30 +2909,58 @@
         <v>90</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>1451.3464283</v>
-      </c>
-      <c r="E11" s="40" t="n">
-        <v>0.962035614998121</v>
+        <v>603.1693661</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0.649484531479614</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">'Resolução Energia'!H31*'Fonte Desconhecida'!$B$9</f>
-        <v>64.9828539</v>
+        <v>32.6919375</v>
       </c>
       <c r="G11" s="24" t="n">
         <f aca="false">H31*'Fonte Desconhecida'!$C$9</f>
-        <v>0.01703887498</v>
+        <v>0.0085720125</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">F11/D11 *100</f>
-        <v>4.47741852895288</v>
+        <v>5.42002617131918</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">SQRT((G11/D11)^2+(F11*E11/(D11)^2)^2)*100</f>
+        <v>0.00600675031689182</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="39"/>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>1451.3464283</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.962035614998121</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">'Resolução Energia'!H32*'Fonte Desconhecida'!$B$9</f>
+        <v>64.9828539</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <f aca="false">H32*'Fonte Desconhecida'!$C$9</f>
+        <v>0.01703887498</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">F12/D12 *100</f>
+        <v>4.47741852895288</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">SQRT((G12/D12)^2+(F12*E12/(D12)^2)^2)*100</f>
         <v>0.00319165413937925</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
         <v>0</v>
@@ -3168,6 +3197,7 @@
         <v>0.252133086844109</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
         <v>14</v>
@@ -3199,60 +3229,90 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>1291</v>
+        <v>994</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>343.73</v>
+        <v>136.62</v>
       </c>
       <c r="G30" s="9" t="n">
-        <v>0.22205997606039</v>
+        <f aca="false">H30/(SQRT(D30)*2.35)</f>
+        <v>0.107031628382675</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="I30" s="9" t="n">
-        <v>603.1693661</v>
-      </c>
-      <c r="J30" s="9" t="n">
-        <v>0.649484531479614</v>
+        <v>7.93</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>242.0585834</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>0.223128556635732</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="4" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>343.73</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0.22205997606039</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>603.1693661</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0.649484531479614</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4" t="n">
         <v>3356</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E32" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F32" s="4" t="n">
         <v>830.19</v>
       </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">'Resolução Energia'!H31/(SQRT('Resolução Energia'!D31)*2.35)</f>
+      <c r="G32" s="9" t="n">
+        <f aca="false">'Resolução Energia'!H32/(SQRT('Resolução Energia'!D32)*2.35)</f>
         <v>0.273766658028138</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H32" s="4" t="n">
         <v>37.27</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I32" s="4" t="n">
         <v>1451.3464283</v>
       </c>
-      <c r="J31" s="4" t="n">
+      <c r="J32" s="4" t="n">
         <v>0.962035614998121</v>
       </c>
     </row>
@@ -3261,7 +3321,7 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3281,20 +3341,20 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="I4:I11 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9028340080972"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="14.8542510121458"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,10 +3416,10 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42"/>
       <c r="B4" s="44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>16</v>
@@ -3377,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
@@ -3509,7 +3569,7 @@
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42"/>
       <c r="B8" s="46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="42" t="n">
         <v>2700</v>
@@ -3587,7 +3647,7 @@
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42"/>
       <c r="B10" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="42" t="n">
         <v>5400</v>
